--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_14_38.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_14_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2464500.446298385</v>
+        <v>2463770.421277602</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2692211.328281987</v>
+        <v>2692211.328281986</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.029273655</v>
+        <v>504792.0292736565</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8523711.651502041</v>
+        <v>8523711.651502039</v>
       </c>
     </row>
     <row r="11">
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>8.816525072005941</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>8.816525072005941</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="U9" t="n">
-        <v>8.816525072005941</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1288,64 +1288,64 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>10.00967878293136</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>10.00967878293136</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
         <v>8.816525072005941</v>
       </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
         <v>10.00967878293136</v>
-      </c>
-      <c r="H10" t="n">
-        <v>10.00967878293136</v>
-      </c>
-      <c r="I10" t="n">
-        <v>10.00967878293136</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1370,22 +1370,22 @@
         <v>287.0417781391287</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>275.0530950968105</v>
       </c>
       <c r="D11" t="n">
-        <v>93.76467025681423</v>
+        <v>266.0343991413384</v>
       </c>
       <c r="E11" t="n">
-        <v>287.776536711244</v>
+        <v>43.52437036668121</v>
       </c>
       <c r="F11" t="n">
         <v>306.9483527992211</v>
       </c>
       <c r="G11" t="n">
-        <v>308.3705529686213</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>221.1977633053443</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>48.32476223499853</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>70.64940377992913</v>
       </c>
       <c r="T11" t="n">
         <v>116.8168318431707</v>
       </c>
       <c r="U11" t="n">
-        <v>149.2342715211939</v>
+        <v>149.2342715211938</v>
       </c>
       <c r="V11" t="n">
         <v>230.5481553793078</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>255.8482548572647</v>
       </c>
       <c r="X11" t="n">
         <v>275.1485130900114</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>42.20882861200479</v>
+        <v>42.20882861200478</v>
       </c>
       <c r="S12" t="n">
         <v>146.1923648319297</v>
@@ -1607,10 +1607,10 @@
         <v>287.0417781391287</v>
       </c>
       <c r="C14" t="n">
-        <v>275.0530950968105</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>266.0343991413384</v>
       </c>
       <c r="E14" t="n">
         <v>287.7765367112439</v>
@@ -1619,13 +1619,13 @@
         <v>306.9483527992211</v>
       </c>
       <c r="G14" t="n">
-        <v>308.3705529686213</v>
+        <v>308.3705529686212</v>
       </c>
       <c r="H14" t="n">
-        <v>199.8080900647277</v>
+        <v>221.1977633053442</v>
       </c>
       <c r="I14" t="n">
-        <v>48.32476223499853</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.64940377992913</v>
+        <v>70.64940377992907</v>
       </c>
       <c r="T14" t="n">
-        <v>116.8168318431707</v>
+        <v>116.8168318431706</v>
       </c>
       <c r="U14" t="n">
         <v>149.2342715211938</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>230.5481553793078</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>255.8482548572647</v>
       </c>
       <c r="X14" t="n">
-        <v>275.1485130900113</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>286.5451108862101</v>
+        <v>111.2509986895028</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>78.65848901382577</v>
+        <v>78.65848901382573</v>
       </c>
       <c r="C16" t="n">
-        <v>64.85848385922625</v>
+        <v>64.85848385922621</v>
       </c>
       <c r="D16" t="n">
-        <v>48.47984825680464</v>
+        <v>48.4798482568046</v>
       </c>
       <c r="E16" t="n">
-        <v>47.42759811258409</v>
+        <v>47.42759811258405</v>
       </c>
       <c r="F16" t="n">
-        <v>47.8945224407704</v>
+        <v>47.89452244077036</v>
       </c>
       <c r="G16" t="n">
-        <v>63.9399777734623</v>
+        <v>63.93997777346225</v>
       </c>
       <c r="H16" t="n">
-        <v>52.67937509294035</v>
+        <v>52.6793750929403</v>
       </c>
       <c r="I16" t="n">
-        <v>32.80559377260287</v>
+        <v>32.80559377260282</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.65744136721621</v>
+        <v>34.65744136721615</v>
       </c>
       <c r="S16" t="n">
         <v>104.5161822225168</v>
@@ -1819,10 +1819,10 @@
         <v>126.8063260990559</v>
       </c>
       <c r="U16" t="n">
-        <v>181.2445067290633</v>
+        <v>181.2445067290632</v>
       </c>
       <c r="V16" t="n">
-        <v>155.0666254134514</v>
+        <v>155.0666254134513</v>
       </c>
       <c r="W16" t="n">
         <v>180.2335114840646</v>
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>235.2206552545908</v>
+        <v>235.2206552545909</v>
       </c>
       <c r="C17" t="n">
         <v>223.2319722122726</v>
       </c>
       <c r="D17" t="n">
-        <v>214.2132762568005</v>
+        <v>214.2132762568006</v>
       </c>
       <c r="E17" t="n">
         <v>235.9554138267061</v>
       </c>
       <c r="F17" t="n">
-        <v>255.1272299146832</v>
+        <v>255.1272299146833</v>
       </c>
       <c r="G17" t="n">
-        <v>256.5494300840833</v>
+        <v>256.5494300840834</v>
       </c>
       <c r="H17" t="n">
         <v>169.3766404208064</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>18.82828089539124</v>
+        <v>18.82828089539129</v>
       </c>
       <c r="T17" t="n">
-        <v>64.9957089586328</v>
+        <v>64.99570895863285</v>
       </c>
       <c r="U17" t="n">
-        <v>97.41314863665733</v>
+        <v>97.41314863665602</v>
       </c>
       <c r="V17" t="n">
-        <v>178.7270324947699</v>
+        <v>178.72703249477</v>
       </c>
       <c r="W17" t="n">
-        <v>204.0271319727268</v>
+        <v>204.0271319727269</v>
       </c>
       <c r="X17" t="n">
-        <v>223.3273902054734</v>
+        <v>223.3273902054735</v>
       </c>
       <c r="Y17" t="n">
-        <v>234.7239880016722</v>
+        <v>234.7239880016723</v>
       </c>
     </row>
     <row r="18">
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>26.83736612928789</v>
+        <v>26.83736612928794</v>
       </c>
       <c r="C19" t="n">
-        <v>13.03736097468837</v>
+        <v>13.03736097468843</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>12.11885488892441</v>
+        <v>12.11885488892447</v>
       </c>
       <c r="H19" t="n">
-        <v>0.8582522084024631</v>
+        <v>0.8582522084025199</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>52.69505933797894</v>
+        <v>86.8758017294507</v>
       </c>
       <c r="T19" t="n">
-        <v>74.98520321451805</v>
+        <v>74.98520321451811</v>
       </c>
       <c r="U19" t="n">
         <v>129.4233838445254</v>
@@ -2062,13 +2062,13 @@
         <v>103.2455025289135</v>
       </c>
       <c r="W19" t="n">
-        <v>128.4123885995267</v>
+        <v>128.4123885995268</v>
       </c>
       <c r="X19" t="n">
-        <v>74.05749059532985</v>
+        <v>74.05749059532991</v>
       </c>
       <c r="Y19" t="n">
-        <v>99.11310074286988</v>
+        <v>64.9323583513976</v>
       </c>
     </row>
     <row r="20">
@@ -2078,22 +2078,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>235.2206552545908</v>
+        <v>235.2206552545909</v>
       </c>
       <c r="C20" t="n">
         <v>223.2319722122726</v>
       </c>
       <c r="D20" t="n">
-        <v>214.2132762568005</v>
+        <v>214.2132762568006</v>
       </c>
       <c r="E20" t="n">
         <v>235.9554138267061</v>
       </c>
       <c r="F20" t="n">
-        <v>255.1272299146832</v>
+        <v>255.1272299146833</v>
       </c>
       <c r="G20" t="n">
-        <v>256.5494300840833</v>
+        <v>256.5494300840834</v>
       </c>
       <c r="H20" t="n">
         <v>169.3766404208064</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>18.82828089539159</v>
+        <v>18.82828089539129</v>
       </c>
       <c r="T20" t="n">
-        <v>64.99570895863279</v>
+        <v>64.99570895863285</v>
       </c>
       <c r="U20" t="n">
-        <v>97.41314863665596</v>
+        <v>97.41314863665602</v>
       </c>
       <c r="V20" t="n">
-        <v>178.7270324947699</v>
+        <v>178.72703249477</v>
       </c>
       <c r="W20" t="n">
-        <v>204.0271319727268</v>
+        <v>204.0271319727269</v>
       </c>
       <c r="X20" t="n">
-        <v>223.3273902054734</v>
+        <v>223.3273902054735</v>
       </c>
       <c r="Y20" t="n">
-        <v>234.7239880016722</v>
+        <v>234.7239880016723</v>
       </c>
     </row>
     <row r="21">
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>26.83736612928789</v>
+        <v>26.83736612928794</v>
       </c>
       <c r="C22" t="n">
-        <v>13.03736097468837</v>
+        <v>13.03736097468843</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>12.11885488892441</v>
+        <v>12.11885488892447</v>
       </c>
       <c r="H22" t="n">
-        <v>0.8582522084024631</v>
+        <v>0.8582522084025199</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>52.69505933797894</v>
+        <v>86.8758017294507</v>
       </c>
       <c r="T22" t="n">
-        <v>74.98520321451805</v>
+        <v>74.98520321451811</v>
       </c>
       <c r="U22" t="n">
         <v>129.4233838445254</v>
@@ -2299,13 +2299,13 @@
         <v>103.2455025289135</v>
       </c>
       <c r="W22" t="n">
-        <v>128.4123885995267</v>
+        <v>128.4123885995268</v>
       </c>
       <c r="X22" t="n">
-        <v>74.05749059532985</v>
+        <v>74.05749059532991</v>
       </c>
       <c r="Y22" t="n">
-        <v>99.11310074286988</v>
+        <v>64.9323583513976</v>
       </c>
     </row>
     <row r="23">
@@ -2315,22 +2315,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>235.2206552545908</v>
+        <v>235.2206552545909</v>
       </c>
       <c r="C23" t="n">
         <v>223.2319722122726</v>
       </c>
       <c r="D23" t="n">
-        <v>214.2132762568005</v>
+        <v>214.2132762568006</v>
       </c>
       <c r="E23" t="n">
         <v>235.9554138267061</v>
       </c>
       <c r="F23" t="n">
-        <v>255.1272299146832</v>
+        <v>255.1272299146833</v>
       </c>
       <c r="G23" t="n">
-        <v>256.5494300840833</v>
+        <v>256.5494300840834</v>
       </c>
       <c r="H23" t="n">
         <v>169.3766404208064</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>18.82828089539124</v>
+        <v>18.82828089539132</v>
       </c>
       <c r="T23" t="n">
-        <v>64.99570895863279</v>
+        <v>64.99570895863287</v>
       </c>
       <c r="U23" t="n">
-        <v>97.41314863665596</v>
+        <v>97.41314863665605</v>
       </c>
       <c r="V23" t="n">
-        <v>178.7270324947699</v>
+        <v>178.72703249477</v>
       </c>
       <c r="W23" t="n">
-        <v>204.0271319727268</v>
+        <v>204.0271319727269</v>
       </c>
       <c r="X23" t="n">
-        <v>223.3273902054734</v>
+        <v>223.3273902054735</v>
       </c>
       <c r="Y23" t="n">
-        <v>234.7239880016722</v>
+        <v>234.7239880016723</v>
       </c>
     </row>
     <row r="24">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>26.83736612928789</v>
+        <v>26.83736612928797</v>
       </c>
       <c r="C25" t="n">
-        <v>13.03736097468837</v>
+        <v>13.03736097468845</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>12.11885488892441</v>
+        <v>12.11885488892449</v>
       </c>
       <c r="H25" t="n">
-        <v>0.8582522084024631</v>
+        <v>0.8582522084025483</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>86.87580172945127</v>
+        <v>52.69505933797902</v>
       </c>
       <c r="T25" t="n">
-        <v>74.98520321451805</v>
+        <v>74.98520321451814</v>
       </c>
       <c r="U25" t="n">
-        <v>129.4233838445254</v>
+        <v>129.4233838445255</v>
       </c>
       <c r="V25" t="n">
-        <v>103.2455025289135</v>
+        <v>103.2455025289136</v>
       </c>
       <c r="W25" t="n">
-        <v>128.4123885995267</v>
+        <v>162.5931309909982</v>
       </c>
       <c r="X25" t="n">
-        <v>74.05749059532985</v>
+        <v>74.05749059532994</v>
       </c>
       <c r="Y25" t="n">
-        <v>64.93235835139754</v>
+        <v>64.93235835139762</v>
       </c>
     </row>
     <row r="26">
@@ -2561,19 +2561,19 @@
         <v>266.0343991413384</v>
       </c>
       <c r="E26" t="n">
-        <v>287.7765367112439</v>
+        <v>287.776536711244</v>
       </c>
       <c r="F26" t="n">
         <v>306.9483527992211</v>
       </c>
       <c r="G26" t="n">
-        <v>308.3705529686212</v>
+        <v>308.3705529686213</v>
       </c>
       <c r="H26" t="n">
         <v>221.1977633053443</v>
       </c>
       <c r="I26" t="n">
-        <v>48.32476223499853</v>
+        <v>48.32476223499852</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2609,16 +2609,16 @@
         <v>116.8168318431707</v>
       </c>
       <c r="U26" t="n">
-        <v>149.2342715211938</v>
+        <v>149.2342715211939</v>
       </c>
       <c r="V26" t="n">
-        <v>230.5481553793087</v>
+        <v>230.5481553793078</v>
       </c>
       <c r="W26" t="n">
         <v>255.8482548572647</v>
       </c>
       <c r="X26" t="n">
-        <v>275.1485130900113</v>
+        <v>275.1485130900114</v>
       </c>
       <c r="Y26" t="n">
         <v>286.5451108862101</v>
@@ -2652,7 +2652,7 @@
         <v>96.29757255466569</v>
       </c>
       <c r="I27" t="n">
-        <v>58.28378732322905</v>
+        <v>58.28378732322904</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>42.20882861200479</v>
+        <v>42.20882861200478</v>
       </c>
       <c r="S27" t="n">
         <v>146.1923648319297</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>78.65848901382577</v>
+        <v>78.65848901382579</v>
       </c>
       <c r="C28" t="n">
-        <v>64.85848385922625</v>
+        <v>64.85848385922627</v>
       </c>
       <c r="D28" t="n">
-        <v>48.47984825680464</v>
+        <v>48.47984825680466</v>
       </c>
       <c r="E28" t="n">
-        <v>47.42759811258409</v>
+        <v>47.42759811258411</v>
       </c>
       <c r="F28" t="n">
-        <v>47.8945224407704</v>
+        <v>47.89452244077042</v>
       </c>
       <c r="G28" t="n">
-        <v>63.93997777346229</v>
+        <v>63.93997777346231</v>
       </c>
       <c r="H28" t="n">
-        <v>52.67937509294035</v>
+        <v>52.67937509294036</v>
       </c>
       <c r="I28" t="n">
-        <v>32.80559377260287</v>
+        <v>32.80559377260288</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.65744136721621</v>
+        <v>34.65744136721622</v>
       </c>
       <c r="S28" t="n">
         <v>104.5161822225168</v>
       </c>
       <c r="T28" t="n">
-        <v>126.8063260990559</v>
+        <v>126.806326099056</v>
       </c>
       <c r="U28" t="n">
         <v>181.2445067290633</v>
@@ -2776,7 +2776,7 @@
         <v>180.2335114840646</v>
       </c>
       <c r="X28" t="n">
-        <v>125.8786134798677</v>
+        <v>125.8786134798678</v>
       </c>
       <c r="Y28" t="n">
         <v>116.7534812359354</v>
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>287.0417781391287</v>
+        <v>287.0417781391288</v>
       </c>
       <c r="C29" t="n">
         <v>275.0530950968105</v>
       </c>
       <c r="D29" t="n">
-        <v>266.0343991413384</v>
+        <v>266.0343991413385</v>
       </c>
       <c r="E29" t="n">
-        <v>287.7765367112439</v>
+        <v>287.776536711244</v>
       </c>
       <c r="F29" t="n">
-        <v>306.9483527992211</v>
+        <v>306.9483527992212</v>
       </c>
       <c r="G29" t="n">
-        <v>308.3705529686212</v>
+        <v>308.3705529686213</v>
       </c>
       <c r="H29" t="n">
-        <v>221.1977633053443</v>
+        <v>221.1977633053434</v>
       </c>
       <c r="I29" t="n">
-        <v>48.32476223499853</v>
+        <v>48.3247622349986</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.64940377992913</v>
+        <v>70.6494037799292</v>
       </c>
       <c r="T29" t="n">
         <v>116.8168318431707</v>
       </c>
       <c r="U29" t="n">
-        <v>149.2342715211938</v>
+        <v>149.2342715211939</v>
       </c>
       <c r="V29" t="n">
-        <v>230.5481553793078</v>
+        <v>230.5481553793079</v>
       </c>
       <c r="W29" t="n">
-        <v>255.8482548572647</v>
+        <v>255.8482548572648</v>
       </c>
       <c r="X29" t="n">
-        <v>275.1485130900113</v>
+        <v>275.1485130900114</v>
       </c>
       <c r="Y29" t="n">
-        <v>286.5451108862101</v>
+        <v>286.5451108862102</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>78.65848901382577</v>
+        <v>78.65848901382584</v>
       </c>
       <c r="C31" t="n">
-        <v>64.85848385922625</v>
+        <v>64.85848385922633</v>
       </c>
       <c r="D31" t="n">
-        <v>48.47984825680464</v>
+        <v>48.47984825680471</v>
       </c>
       <c r="E31" t="n">
-        <v>47.42759811258409</v>
+        <v>47.42759811258416</v>
       </c>
       <c r="F31" t="n">
-        <v>47.8945224407704</v>
+        <v>47.89452244077047</v>
       </c>
       <c r="G31" t="n">
-        <v>63.93997777346229</v>
+        <v>63.93997777346237</v>
       </c>
       <c r="H31" t="n">
-        <v>52.67937509294035</v>
+        <v>52.67937509294042</v>
       </c>
       <c r="I31" t="n">
-        <v>32.80559377260287</v>
+        <v>32.80559377260294</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.65744136721621</v>
+        <v>34.65744136721628</v>
       </c>
       <c r="S31" t="n">
-        <v>104.5161822225168</v>
+        <v>104.5161822225169</v>
       </c>
       <c r="T31" t="n">
-        <v>126.8063260990559</v>
+        <v>126.806326099056</v>
       </c>
       <c r="U31" t="n">
         <v>181.2445067290633</v>
@@ -3010,13 +3010,13 @@
         <v>155.0666254134514</v>
       </c>
       <c r="W31" t="n">
-        <v>180.2335114840646</v>
+        <v>180.2335114840647</v>
       </c>
       <c r="X31" t="n">
-        <v>125.8786134798677</v>
+        <v>125.8786134798678</v>
       </c>
       <c r="Y31" t="n">
-        <v>116.7534812359354</v>
+        <v>116.7534812359355</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>284.4520740444088</v>
+        <v>284.4520740444086</v>
       </c>
       <c r="C32" t="n">
-        <v>272.4633910020905</v>
+        <v>272.4633910020904</v>
       </c>
       <c r="D32" t="n">
-        <v>263.4446950466185</v>
+        <v>263.4446950466183</v>
       </c>
       <c r="E32" t="n">
-        <v>285.186832616524</v>
+        <v>285.1868326165239</v>
       </c>
       <c r="F32" t="n">
-        <v>304.3586487045012</v>
+        <v>304.3586487045011</v>
       </c>
       <c r="G32" t="n">
-        <v>305.7808488739013</v>
+        <v>305.7808488739012</v>
       </c>
       <c r="H32" t="n">
-        <v>218.6080592106243</v>
+        <v>218.6080592106242</v>
       </c>
       <c r="I32" t="n">
-        <v>45.73505814027862</v>
+        <v>45.73505814027848</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>68.05969968520921</v>
+        <v>68.05969968520907</v>
       </c>
       <c r="T32" t="n">
-        <v>114.2271277484508</v>
+        <v>114.2271277484506</v>
       </c>
       <c r="U32" t="n">
-        <v>146.6445674264739</v>
+        <v>146.6445674264738</v>
       </c>
       <c r="V32" t="n">
-        <v>227.9584512845879</v>
+        <v>227.9584512845878</v>
       </c>
       <c r="W32" t="n">
-        <v>253.2585507625448</v>
+        <v>253.2585507625447</v>
       </c>
       <c r="X32" t="n">
-        <v>272.5588089952914</v>
+        <v>272.5588089952913</v>
       </c>
       <c r="Y32" t="n">
-        <v>283.9554067914902</v>
+        <v>283.9554067914901</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>76.06878491910587</v>
+        <v>76.06878491910572</v>
       </c>
       <c r="C34" t="n">
-        <v>62.26877976450635</v>
+        <v>62.26877976450621</v>
       </c>
       <c r="D34" t="n">
-        <v>45.89014416208474</v>
+        <v>45.8901441620846</v>
       </c>
       <c r="E34" t="n">
-        <v>44.83789401786419</v>
+        <v>44.83789401786404</v>
       </c>
       <c r="F34" t="n">
-        <v>45.3048183460505</v>
+        <v>45.30481834605035</v>
       </c>
       <c r="G34" t="n">
-        <v>61.35027367874239</v>
+        <v>61.35027367874225</v>
       </c>
       <c r="H34" t="n">
-        <v>50.08967099822044</v>
+        <v>50.0896709982203</v>
       </c>
       <c r="I34" t="n">
-        <v>30.21588967788296</v>
+        <v>30.21588967788282</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>32.0677372724963</v>
+        <v>32.06773727249616</v>
       </c>
       <c r="S34" t="n">
-        <v>101.9264781277969</v>
+        <v>101.9264781277968</v>
       </c>
       <c r="T34" t="n">
-        <v>124.216622004336</v>
+        <v>124.2166220043359</v>
       </c>
       <c r="U34" t="n">
-        <v>178.6548026343434</v>
+        <v>178.6548026343432</v>
       </c>
       <c r="V34" t="n">
-        <v>152.4769213187315</v>
+        <v>152.4769213187313</v>
       </c>
       <c r="W34" t="n">
-        <v>177.6438073893447</v>
+        <v>177.6438073893446</v>
       </c>
       <c r="X34" t="n">
-        <v>123.2889093851478</v>
+        <v>123.2889093851477</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.1637771412155</v>
+        <v>114.1637771412154</v>
       </c>
     </row>
     <row r="35">
@@ -3317,7 +3317,7 @@
         <v>18.82828089539132</v>
       </c>
       <c r="T35" t="n">
-        <v>64.99570895863289</v>
+        <v>64.99570895863287</v>
       </c>
       <c r="U35" t="n">
         <v>97.41314863665605</v>
@@ -3466,13 +3466,13 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>18.95562523366688</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>67.92017649578347</v>
+        <v>52.69505933797902</v>
       </c>
       <c r="T37" t="n">
         <v>74.98520321451814</v>
@@ -3490,7 +3490,7 @@
         <v>74.05749059532994</v>
       </c>
       <c r="Y37" t="n">
-        <v>64.93235835139762</v>
+        <v>99.11310074286907</v>
       </c>
     </row>
     <row r="38">
@@ -3500,19 +3500,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>235.2206552545908</v>
+        <v>235.2206552545909</v>
       </c>
       <c r="C38" t="n">
         <v>223.2319722122726</v>
       </c>
       <c r="D38" t="n">
-        <v>214.2132762568005</v>
+        <v>214.2132762568006</v>
       </c>
       <c r="E38" t="n">
         <v>235.9554138267061</v>
       </c>
       <c r="F38" t="n">
-        <v>255.1272299146832</v>
+        <v>255.1272299146833</v>
       </c>
       <c r="G38" t="n">
         <v>256.5494300840834</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>18.82828089539123</v>
+        <v>18.82828089539129</v>
       </c>
       <c r="T38" t="n">
-        <v>64.9957089586328</v>
+        <v>64.99570895863286</v>
       </c>
       <c r="U38" t="n">
-        <v>97.41314863665596</v>
+        <v>97.41314863665602</v>
       </c>
       <c r="V38" t="n">
-        <v>178.7270324947699</v>
+        <v>178.72703249477</v>
       </c>
       <c r="W38" t="n">
-        <v>204.0271319727268</v>
+        <v>204.0271319727269</v>
       </c>
       <c r="X38" t="n">
-        <v>223.3273902054734</v>
+        <v>223.3273902054735</v>
       </c>
       <c r="Y38" t="n">
-        <v>234.7239880016722</v>
+        <v>234.7239880016723</v>
       </c>
     </row>
     <row r="39">
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>26.83736612928789</v>
+        <v>26.83736612928794</v>
       </c>
       <c r="C40" t="n">
-        <v>13.03736097468837</v>
+        <v>13.03736097468843</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>12.11885488892441</v>
+        <v>12.11885488892447</v>
       </c>
       <c r="H40" t="n">
-        <v>0.8582522084024631</v>
+        <v>0.8582522084025199</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3703,16 +3703,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>18.95562523366688</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>52.69505933797894</v>
+        <v>52.695059337979</v>
       </c>
       <c r="T40" t="n">
-        <v>109.1659456059903</v>
+        <v>90.21032037232295</v>
       </c>
       <c r="U40" t="n">
         <v>129.4233838445254</v>
@@ -3721,13 +3721,13 @@
         <v>103.2455025289135</v>
       </c>
       <c r="W40" t="n">
-        <v>128.4123885995267</v>
+        <v>128.4123885995268</v>
       </c>
       <c r="X40" t="n">
-        <v>74.05749059532985</v>
+        <v>74.05749059532991</v>
       </c>
       <c r="Y40" t="n">
-        <v>64.93235835139754</v>
+        <v>64.9323583513976</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.8925419353317</v>
+        <v>266.8925419353319</v>
       </c>
       <c r="C41" t="n">
-        <v>254.9038588930135</v>
+        <v>254.9038588930136</v>
       </c>
       <c r="D41" t="n">
-        <v>245.8851629375415</v>
+        <v>245.8851629375416</v>
       </c>
       <c r="E41" t="n">
-        <v>267.627300507447</v>
+        <v>267.6273005074472</v>
       </c>
       <c r="F41" t="n">
-        <v>195.8509070289271</v>
+        <v>131.6140198298733</v>
       </c>
       <c r="G41" t="n">
-        <v>288.2213167648243</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>201.0485271015474</v>
       </c>
       <c r="I41" t="n">
-        <v>28.17552603120158</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>50.50016757613232</v>
       </c>
       <c r="T41" t="n">
-        <v>96.66759563937373</v>
+        <v>96.66759563937387</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>129.0850353173971</v>
       </c>
       <c r="V41" t="n">
-        <v>210.3989191755109</v>
+        <v>210.398919175511</v>
       </c>
       <c r="W41" t="n">
-        <v>235.6990186534678</v>
+        <v>235.6990186534679</v>
       </c>
       <c r="X41" t="n">
-        <v>254.9992768862144</v>
+        <v>254.9992768862145</v>
       </c>
       <c r="Y41" t="n">
-        <v>266.3958746824131</v>
+        <v>266.3958746824133</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>58.50925281002883</v>
+        <v>58.50925281002897</v>
       </c>
       <c r="C43" t="n">
-        <v>44.70924765542931</v>
+        <v>44.70924765542945</v>
       </c>
       <c r="D43" t="n">
-        <v>28.3306120530077</v>
+        <v>28.33061205300784</v>
       </c>
       <c r="E43" t="n">
-        <v>27.27836190878715</v>
+        <v>27.27836190878729</v>
       </c>
       <c r="F43" t="n">
-        <v>27.74528623697346</v>
+        <v>27.7452862369736</v>
       </c>
       <c r="G43" t="n">
-        <v>43.79074156966535</v>
+        <v>43.79074156966549</v>
       </c>
       <c r="H43" t="n">
-        <v>32.5301388891434</v>
+        <v>32.53013888914354</v>
       </c>
       <c r="I43" t="n">
-        <v>12.65635756880592</v>
+        <v>12.65635756880606</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>14.50820516341926</v>
+        <v>14.5082051634194</v>
       </c>
       <c r="S43" t="n">
-        <v>84.36694601871989</v>
+        <v>84.36694601872003</v>
       </c>
       <c r="T43" t="n">
-        <v>106.657089895259</v>
+        <v>106.6570898952591</v>
       </c>
       <c r="U43" t="n">
-        <v>161.0952705252663</v>
+        <v>161.0952705252665</v>
       </c>
       <c r="V43" t="n">
-        <v>134.9173892096544</v>
+        <v>134.9173892096546</v>
       </c>
       <c r="W43" t="n">
-        <v>160.0842752802677</v>
+        <v>160.0842752802678</v>
       </c>
       <c r="X43" t="n">
-        <v>105.7293772760708</v>
+        <v>105.7293772760709</v>
       </c>
       <c r="Y43" t="n">
-        <v>96.60424503213848</v>
+        <v>96.60424503213862</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.8925419353317</v>
+        <v>266.8925419353319</v>
       </c>
       <c r="C44" t="n">
-        <v>254.9038588930135</v>
+        <v>254.9038588930136</v>
       </c>
       <c r="D44" t="n">
-        <v>245.8851629375415</v>
+        <v>245.8851629375416</v>
       </c>
       <c r="E44" t="n">
-        <v>267.627300507447</v>
+        <v>112.4422037418967</v>
       </c>
       <c r="F44" t="n">
-        <v>286.7991165954242</v>
+        <v>286.7991165954243</v>
       </c>
       <c r="G44" t="n">
-        <v>288.2213167648243</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>201.0485271015474</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>18.54120032281857</v>
+        <v>50.50016757613231</v>
       </c>
       <c r="T44" t="n">
-        <v>96.6675956393737</v>
+        <v>96.66759563937389</v>
       </c>
       <c r="U44" t="n">
-        <v>129.0850353173969</v>
+        <v>129.0850353173971</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>210.398919175511</v>
       </c>
       <c r="W44" t="n">
-        <v>235.6990186534678</v>
+        <v>235.6990186534679</v>
       </c>
       <c r="X44" t="n">
-        <v>254.9992768862144</v>
+        <v>254.9992768862145</v>
       </c>
       <c r="Y44" t="n">
-        <v>266.3958746824131</v>
+        <v>266.3958746824133</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>58.5092528100288</v>
+        <v>58.50925281002897</v>
       </c>
       <c r="C46" t="n">
-        <v>44.70924765542928</v>
+        <v>44.70924765542945</v>
       </c>
       <c r="D46" t="n">
-        <v>28.33061205300767</v>
+        <v>28.33061205300784</v>
       </c>
       <c r="E46" t="n">
-        <v>27.27836190878712</v>
+        <v>27.27836190878729</v>
       </c>
       <c r="F46" t="n">
-        <v>27.74528623697343</v>
+        <v>27.7452862369736</v>
       </c>
       <c r="G46" t="n">
-        <v>43.79074156966532</v>
+        <v>43.79074156966549</v>
       </c>
       <c r="H46" t="n">
-        <v>32.53013888914337</v>
+        <v>32.53013888914354</v>
       </c>
       <c r="I46" t="n">
-        <v>12.65635756880589</v>
+        <v>12.65635756880606</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>14.50820516341923</v>
+        <v>14.5082051634194</v>
       </c>
       <c r="S46" t="n">
-        <v>84.36694601871986</v>
+        <v>84.36694601872003</v>
       </c>
       <c r="T46" t="n">
-        <v>106.657089895259</v>
+        <v>106.6570898952591</v>
       </c>
       <c r="U46" t="n">
-        <v>161.0952705252663</v>
+        <v>161.0952705252665</v>
       </c>
       <c r="V46" t="n">
-        <v>134.9173892096544</v>
+        <v>134.9173892096546</v>
       </c>
       <c r="W46" t="n">
-        <v>160.0842752802677</v>
+        <v>160.0842752802678</v>
       </c>
       <c r="X46" t="n">
-        <v>105.7293772760708</v>
+        <v>105.7293772760709</v>
       </c>
       <c r="Y46" t="n">
-        <v>96.60424503213845</v>
+        <v>96.60424503213862</v>
       </c>
     </row>
   </sheetData>
@@ -4805,31 +4805,31 @@
         <v>10.71035629773655</v>
       </c>
       <c r="K8" t="n">
-        <v>10.71035629773655</v>
+        <v>20.6199382928386</v>
       </c>
       <c r="L8" t="n">
-        <v>10.71035629773655</v>
+        <v>20.6199382928386</v>
       </c>
       <c r="M8" t="n">
-        <v>20.21955114152135</v>
+        <v>20.6199382928386</v>
       </c>
       <c r="N8" t="n">
-        <v>20.21955114152135</v>
+        <v>20.6199382928386</v>
       </c>
       <c r="O8" t="n">
-        <v>30.12913313662339</v>
+        <v>30.52952028794065</v>
       </c>
       <c r="P8" t="n">
-        <v>30.12913313662339</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="Q8" t="n">
         <v>40.03871513172544</v>
       </c>
       <c r="R8" t="n">
+        <v>40.03871513172544</v>
+      </c>
+      <c r="S8" t="n">
         <v>29.92792848229982</v>
-      </c>
-      <c r="S8" t="n">
-        <v>21.02234760148574</v>
       </c>
       <c r="T8" t="n">
         <v>21.02234760148574</v>
@@ -4857,16 +4857,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8007743026345088</v>
+        <v>19.81714183287421</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="F9" t="n">
         <v>0.8007743026345088</v>
@@ -4887,46 +4887,46 @@
         <v>10.71035629773655</v>
       </c>
       <c r="L9" t="n">
+        <v>10.71035629773655</v>
+      </c>
+      <c r="M9" t="n">
+        <v>10.71035629773655</v>
+      </c>
+      <c r="N9" t="n">
         <v>20.6199382928386</v>
       </c>
-      <c r="M9" t="n">
-        <v>30.12913313662339</v>
-      </c>
-      <c r="N9" t="n">
-        <v>30.12913313662339</v>
-      </c>
       <c r="O9" t="n">
-        <v>30.12913313662339</v>
+        <v>30.52952028794065</v>
       </c>
       <c r="P9" t="n">
-        <v>30.12913313662339</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="Q9" t="n">
         <v>40.03871513172544</v>
       </c>
       <c r="R9" t="n">
+        <v>40.03871513172544</v>
+      </c>
+      <c r="S9" t="n">
+        <v>40.03871513172544</v>
+      </c>
+      <c r="T9" t="n">
         <v>29.92792848229982</v>
       </c>
-      <c r="S9" t="n">
+      <c r="U9" t="n">
+        <v>29.92792848229982</v>
+      </c>
+      <c r="V9" t="n">
+        <v>29.92792848229982</v>
+      </c>
+      <c r="W9" t="n">
+        <v>29.92792848229982</v>
+      </c>
+      <c r="X9" t="n">
         <v>19.81714183287421</v>
       </c>
-      <c r="T9" t="n">
-        <v>9.70635518344859</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0.8007743026345088</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0.8007743026345088</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0.8007743026345088</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0.8007743026345088</v>
-      </c>
       <c r="Y9" t="n">
-        <v>0.8007743026345088</v>
+        <v>19.81714183287421</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>31.13313425091136</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="C10" t="n">
-        <v>31.13313425091136</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="D10" t="n">
-        <v>31.13313425091136</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="E10" t="n">
-        <v>31.13313425091136</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="F10" t="n">
-        <v>31.13313425091136</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="G10" t="n">
-        <v>21.02234760148574</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="H10" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="I10" t="n">
         <v>0.8007743026345088</v>
@@ -4966,46 +4966,46 @@
         <v>0.8007743026345088</v>
       </c>
       <c r="L10" t="n">
-        <v>10.3099691464193</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="M10" t="n">
         <v>20.21955114152135</v>
       </c>
       <c r="N10" t="n">
+        <v>20.21955114152135</v>
+      </c>
+      <c r="O10" t="n">
         <v>30.12913313662339</v>
-      </c>
-      <c r="O10" t="n">
-        <v>40.03871513172544</v>
       </c>
       <c r="P10" t="n">
         <v>40.03871513172544</v>
       </c>
       <c r="Q10" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="R10" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="S10" t="n">
-        <v>40.03871513172544</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="T10" t="n">
-        <v>40.03871513172544</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="U10" t="n">
-        <v>40.03871513172544</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="V10" t="n">
-        <v>40.03871513172544</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="W10" t="n">
-        <v>40.03871513172544</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="X10" t="n">
-        <v>40.03871513172544</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="Y10" t="n">
-        <v>40.03871513172544</v>
+        <v>10.91156095206012</v>
       </c>
     </row>
     <row r="11">
@@ -5015,43 +5015,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1333.013122545273</v>
+        <v>1003.217507760229</v>
       </c>
       <c r="C11" t="n">
-        <v>1333.013122545273</v>
+        <v>725.3860985715316</v>
       </c>
       <c r="D11" t="n">
-        <v>1238.301334407077</v>
+        <v>456.6644832772504</v>
       </c>
       <c r="E11" t="n">
-        <v>947.6179639916791</v>
+        <v>412.7004728058552</v>
       </c>
       <c r="F11" t="n">
-        <v>637.5691227803445</v>
+        <v>102.6516315945206</v>
       </c>
       <c r="G11" t="n">
-        <v>326.0837157413331</v>
+        <v>102.6516315945206</v>
       </c>
       <c r="H11" t="n">
         <v>102.6516315945206</v>
       </c>
       <c r="I11" t="n">
-        <v>53.83874044805745</v>
+        <v>53.83874044805744</v>
       </c>
       <c r="J11" t="n">
-        <v>168.779756956291</v>
+        <v>168.7797569562907</v>
       </c>
       <c r="K11" t="n">
-        <v>473.2797631944176</v>
+        <v>473.2797631944173</v>
       </c>
       <c r="L11" t="n">
-        <v>901.0089535643581</v>
+        <v>901.0089535643579</v>
       </c>
       <c r="M11" t="n">
         <v>1383.089750803576</v>
       </c>
       <c r="N11" t="n">
-        <v>1851.700290947844</v>
+        <v>1851.700290947843</v>
       </c>
       <c r="O11" t="n">
         <v>2241.952946453911</v>
@@ -5060,31 +5060,31 @@
         <v>2542.867099253001</v>
       </c>
       <c r="Q11" t="n">
-        <v>2691.937022402873</v>
+        <v>2691.937022402872</v>
       </c>
       <c r="R11" t="n">
-        <v>2691.937022402873</v>
+        <v>2691.937022402872</v>
       </c>
       <c r="S11" t="n">
-        <v>2691.937022402873</v>
+        <v>2620.573988281732</v>
       </c>
       <c r="T11" t="n">
-        <v>2573.940222561286</v>
+        <v>2502.577188440145</v>
       </c>
       <c r="U11" t="n">
-        <v>2423.19853415604</v>
+        <v>2351.835500034899</v>
       </c>
       <c r="V11" t="n">
-        <v>2190.321609530477</v>
+        <v>2118.958575409335</v>
       </c>
       <c r="W11" t="n">
-        <v>2190.321609530477</v>
+        <v>1860.525994745431</v>
       </c>
       <c r="X11" t="n">
-        <v>1912.393818530465</v>
+        <v>1582.59820374542</v>
       </c>
       <c r="Y11" t="n">
-        <v>1622.954312584798</v>
+        <v>1293.158697799753</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5115,25 @@
         <v>112.7112528957636</v>
       </c>
       <c r="I12" t="n">
-        <v>53.83874044805745</v>
+        <v>53.83874044805744</v>
       </c>
       <c r="J12" t="n">
-        <v>53.83874044805745</v>
+        <v>139.6691292591985</v>
       </c>
       <c r="K12" t="n">
-        <v>327.0431647853414</v>
+        <v>327.7843480572368</v>
       </c>
       <c r="L12" t="n">
-        <v>751.6437051866033</v>
+        <v>752.3848884584986</v>
       </c>
       <c r="M12" t="n">
-        <v>1305.269023619632</v>
+        <v>1306.010206891527</v>
       </c>
       <c r="N12" t="n">
-        <v>1533.893417539338</v>
+        <v>1887.683243147196</v>
       </c>
       <c r="O12" t="n">
-        <v>1990.502375094602</v>
+        <v>2344.292200702461</v>
       </c>
       <c r="P12" t="n">
         <v>2344.292200702461</v>
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>415.5411639918868</v>
+        <v>415.5411639918864</v>
       </c>
       <c r="C13" t="n">
-        <v>350.0275439320623</v>
+        <v>350.0275439320619</v>
       </c>
       <c r="D13" t="n">
-        <v>301.0580002383202</v>
+        <v>301.0580002383201</v>
       </c>
       <c r="E13" t="n">
         <v>253.1513354781342</v>
@@ -5194,37 +5194,37 @@
         <v>86.97570385472702</v>
       </c>
       <c r="I13" t="n">
-        <v>53.83874044805745</v>
+        <v>53.83874044805744</v>
       </c>
       <c r="J13" t="n">
         <v>113.0530661081568</v>
       </c>
       <c r="K13" t="n">
-        <v>275.0560012198802</v>
+        <v>275.0560012198803</v>
       </c>
       <c r="L13" t="n">
-        <v>511.4357994907267</v>
+        <v>511.4357994907269</v>
       </c>
       <c r="M13" t="n">
-        <v>767.0362328455511</v>
+        <v>767.036232845552</v>
       </c>
       <c r="N13" t="n">
-        <v>1022.219578958234</v>
+        <v>1022.219578958235</v>
       </c>
       <c r="O13" t="n">
-        <v>1254.792983767201</v>
+        <v>1254.792983767202</v>
       </c>
       <c r="P13" t="n">
-        <v>1447.24134554732</v>
+        <v>1447.241345547321</v>
       </c>
       <c r="Q13" t="n">
-        <v>1530.505989289863</v>
+        <v>1530.505989289864</v>
       </c>
       <c r="R13" t="n">
-        <v>1495.498472757321</v>
+        <v>1495.498472757322</v>
       </c>
       <c r="S13" t="n">
-        <v>1389.926571522456</v>
+        <v>1389.926571522457</v>
       </c>
       <c r="T13" t="n">
         <v>1261.839373442602</v>
@@ -5233,16 +5233,16 @@
         <v>1078.764114120316</v>
       </c>
       <c r="V13" t="n">
-        <v>922.1311591572337</v>
+        <v>922.1311591572335</v>
       </c>
       <c r="W13" t="n">
-        <v>740.0771071531281</v>
+        <v>740.0771071531278</v>
       </c>
       <c r="X13" t="n">
-        <v>612.9269925269991</v>
+        <v>612.9269925269988</v>
       </c>
       <c r="Y13" t="n">
-        <v>494.9941831977714</v>
+        <v>494.994183197771</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1494.527013049697</v>
+        <v>1458.210058554895</v>
       </c>
       <c r="C14" t="n">
-        <v>1216.695603861</v>
+        <v>1458.210058554895</v>
       </c>
       <c r="D14" t="n">
-        <v>1216.695603861</v>
+        <v>1189.488443260613</v>
       </c>
       <c r="E14" t="n">
-        <v>926.0122334456019</v>
+        <v>898.8050728452155</v>
       </c>
       <c r="F14" t="n">
-        <v>615.9633922342674</v>
+        <v>588.756231633881</v>
       </c>
       <c r="G14" t="n">
-        <v>304.477985195256</v>
+        <v>277.2708245948697</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6516315945206</v>
+        <v>53.83874044805742</v>
       </c>
       <c r="I14" t="n">
-        <v>53.83874044805745</v>
+        <v>53.83874044805742</v>
       </c>
       <c r="J14" t="n">
-        <v>168.779756956292</v>
+        <v>168.7797569562908</v>
       </c>
       <c r="K14" t="n">
-        <v>473.2797631944185</v>
+        <v>473.2797631944172</v>
       </c>
       <c r="L14" t="n">
-        <v>901.008953564359</v>
+        <v>901.0089535643581</v>
       </c>
       <c r="M14" t="n">
-        <v>1383.089750803577</v>
+        <v>1383.089750803576</v>
       </c>
       <c r="N14" t="n">
-        <v>1851.700290947844</v>
+        <v>1851.700290947843</v>
       </c>
       <c r="O14" t="n">
-        <v>2241.952946453912</v>
+        <v>2241.952946453911</v>
       </c>
       <c r="P14" t="n">
-        <v>2542.867099253002</v>
+        <v>2542.867099253001</v>
       </c>
       <c r="Q14" t="n">
-        <v>2691.937022402873</v>
+        <v>2691.937022402871</v>
       </c>
       <c r="R14" t="n">
-        <v>2691.937022402873</v>
+        <v>2691.937022402871</v>
       </c>
       <c r="S14" t="n">
-        <v>2620.573988281732</v>
+        <v>2620.573988281731</v>
       </c>
       <c r="T14" t="n">
-        <v>2502.577188440146</v>
+        <v>2502.577188440144</v>
       </c>
       <c r="U14" t="n">
-        <v>2351.835500034899</v>
+        <v>2351.835500034898</v>
       </c>
       <c r="V14" t="n">
-        <v>2351.835500034899</v>
+        <v>2118.958575409335</v>
       </c>
       <c r="W14" t="n">
-        <v>2351.835500034899</v>
+        <v>1860.525994745431</v>
       </c>
       <c r="X14" t="n">
-        <v>2073.907709034888</v>
+        <v>1860.525994745431</v>
       </c>
       <c r="Y14" t="n">
-        <v>1784.468203089221</v>
+        <v>1748.151248594418</v>
       </c>
     </row>
     <row r="15">
@@ -5349,22 +5349,22 @@
         <v>209.9815282035067</v>
       </c>
       <c r="H15" t="n">
-        <v>112.7112528957636</v>
+        <v>112.7112528957635</v>
       </c>
       <c r="I15" t="n">
-        <v>53.83874044805745</v>
+        <v>53.83874044805742</v>
       </c>
       <c r="J15" t="n">
-        <v>139.6691292591985</v>
+        <v>53.83874044805742</v>
       </c>
       <c r="K15" t="n">
-        <v>412.8735535964826</v>
+        <v>327.0431647853414</v>
       </c>
       <c r="L15" t="n">
-        <v>837.4740939977444</v>
+        <v>751.6437051866033</v>
       </c>
       <c r="M15" t="n">
-        <v>1391.099412430773</v>
+        <v>952.220381283669</v>
       </c>
       <c r="N15" t="n">
         <v>1533.893417539338</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>415.5411639918866</v>
+        <v>415.5411639918868</v>
       </c>
       <c r="C16" t="n">
-        <v>350.0275439320621</v>
+        <v>350.0275439320624</v>
       </c>
       <c r="D16" t="n">
-        <v>301.05800023832</v>
+        <v>301.0580002383203</v>
       </c>
       <c r="E16" t="n">
-        <v>253.151335478134</v>
+        <v>253.1513354781344</v>
       </c>
       <c r="F16" t="n">
-        <v>204.7730299824063</v>
+        <v>204.7730299824068</v>
       </c>
       <c r="G16" t="n">
-        <v>140.1871938475961</v>
+        <v>140.1871938475959</v>
       </c>
       <c r="H16" t="n">
-        <v>86.97570385472702</v>
+        <v>86.97570385472693</v>
       </c>
       <c r="I16" t="n">
-        <v>53.83874044805745</v>
+        <v>53.83874044805742</v>
       </c>
       <c r="J16" t="n">
         <v>113.0530661081568</v>
@@ -5440,25 +5440,25 @@
         <v>275.0560012198802</v>
       </c>
       <c r="L16" t="n">
-        <v>511.4357994907267</v>
+        <v>511.4357994907268</v>
       </c>
       <c r="M16" t="n">
-        <v>767.0362328455517</v>
+        <v>767.0362328455518</v>
       </c>
       <c r="N16" t="n">
         <v>1022.219578958235</v>
       </c>
       <c r="O16" t="n">
-        <v>1254.792983767201</v>
+        <v>1254.792983767202</v>
       </c>
       <c r="P16" t="n">
         <v>1447.241345547321</v>
       </c>
       <c r="Q16" t="n">
-        <v>1530.505989289863</v>
+        <v>1530.505989289864</v>
       </c>
       <c r="R16" t="n">
-        <v>1495.498472757322</v>
+        <v>1495.498472757321</v>
       </c>
       <c r="S16" t="n">
         <v>1389.926571522456</v>
@@ -5470,16 +5470,16 @@
         <v>1078.764114120316</v>
       </c>
       <c r="V16" t="n">
-        <v>922.1311591572336</v>
+        <v>922.1311591572338</v>
       </c>
       <c r="W16" t="n">
-        <v>740.0771071531279</v>
+        <v>740.0771071531282</v>
       </c>
       <c r="X16" t="n">
-        <v>612.9269925269989</v>
+        <v>612.9269925269991</v>
       </c>
       <c r="Y16" t="n">
-        <v>494.9941831977712</v>
+        <v>494.9941831977714</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1421.97405632215</v>
+        <v>1421.974056322151</v>
       </c>
       <c r="C17" t="n">
-        <v>1196.487215703693</v>
+        <v>1196.487215703694</v>
       </c>
       <c r="D17" t="n">
-        <v>980.1101689796523</v>
+        <v>980.1101689796528</v>
       </c>
       <c r="E17" t="n">
-        <v>741.7713671344947</v>
+        <v>741.7713671344951</v>
       </c>
       <c r="F17" t="n">
-        <v>484.0670944934005</v>
+        <v>484.0670944934009</v>
       </c>
       <c r="G17" t="n">
-        <v>224.9262560246295</v>
+        <v>224.9262560246296</v>
       </c>
       <c r="H17" t="n">
-        <v>53.83874044805744</v>
+        <v>53.83874044805742</v>
       </c>
       <c r="I17" t="n">
-        <v>53.83874044805744</v>
+        <v>53.83874044805742</v>
       </c>
       <c r="J17" t="n">
         <v>168.779756956291</v>
@@ -5519,31 +5519,31 @@
         <v>473.2797631944175</v>
       </c>
       <c r="L17" t="n">
-        <v>901.0089535643582</v>
+        <v>901.008953564358</v>
       </c>
       <c r="M17" t="n">
         <v>1383.089750803576</v>
       </c>
       <c r="N17" t="n">
-        <v>1851.700290947844</v>
+        <v>1851.700290947843</v>
       </c>
       <c r="O17" t="n">
-        <v>2241.952946453912</v>
+        <v>2241.952946453911</v>
       </c>
       <c r="P17" t="n">
-        <v>2542.867099253002</v>
+        <v>2542.867099253001</v>
       </c>
       <c r="Q17" t="n">
-        <v>2691.937022402872</v>
+        <v>2691.937022402871</v>
       </c>
       <c r="R17" t="n">
-        <v>2691.937022402872</v>
+        <v>2691.937022402871</v>
       </c>
       <c r="S17" t="n">
-        <v>2672.918556851972</v>
+        <v>2672.918556851971</v>
       </c>
       <c r="T17" t="n">
-        <v>2607.266325580626</v>
+        <v>2607.266325580625</v>
       </c>
       <c r="U17" t="n">
         <v>2508.869205745619</v>
@@ -5558,7 +5558,7 @@
         <v>1896.665615166861</v>
       </c>
       <c r="Y17" t="n">
-        <v>1659.570677791434</v>
+        <v>1659.570677791435</v>
       </c>
     </row>
     <row r="18">
@@ -5586,19 +5586,19 @@
         <v>209.9815282035067</v>
       </c>
       <c r="H18" t="n">
-        <v>112.7112528957636</v>
+        <v>112.7112528957635</v>
       </c>
       <c r="I18" t="n">
-        <v>53.83874044805744</v>
+        <v>53.83874044805742</v>
       </c>
       <c r="J18" t="n">
         <v>139.6691292591985</v>
       </c>
       <c r="K18" t="n">
-        <v>412.8735535964826</v>
+        <v>412.8735535964825</v>
       </c>
       <c r="L18" t="n">
-        <v>837.4740939977444</v>
+        <v>837.4740939977443</v>
       </c>
       <c r="M18" t="n">
         <v>1391.099412430773</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>80.11598092484051</v>
+        <v>80.11598092484067</v>
       </c>
       <c r="C19" t="n">
-        <v>66.94692943525631</v>
+        <v>66.94692943525639</v>
       </c>
       <c r="D19" t="n">
-        <v>66.94692943525631</v>
+        <v>66.94692943525639</v>
       </c>
       <c r="E19" t="n">
-        <v>66.94692943525631</v>
+        <v>66.94692943525639</v>
       </c>
       <c r="F19" t="n">
-        <v>66.94692943525631</v>
+        <v>66.94692943525639</v>
       </c>
       <c r="G19" t="n">
-        <v>54.70566187068619</v>
+        <v>54.70566187068623</v>
       </c>
       <c r="H19" t="n">
-        <v>53.83874044805744</v>
+        <v>53.83874044805742</v>
       </c>
       <c r="I19" t="n">
-        <v>53.83874044805744</v>
+        <v>53.83874044805742</v>
       </c>
       <c r="J19" t="n">
-        <v>53.83874044805744</v>
+        <v>53.83874044805742</v>
       </c>
       <c r="K19" t="n">
         <v>113.8109628359076</v>
@@ -5698,25 +5698,25 @@
         <v>775.8427435439821</v>
       </c>
       <c r="S19" t="n">
-        <v>722.6154108793569</v>
+        <v>688.0894084637289</v>
       </c>
       <c r="T19" t="n">
-        <v>646.8727813697427</v>
+        <v>612.3467789541146</v>
       </c>
       <c r="U19" t="n">
-        <v>516.1420906176969</v>
+        <v>481.6160882020687</v>
       </c>
       <c r="V19" t="n">
-        <v>411.853704224855</v>
+        <v>377.3277018092268</v>
       </c>
       <c r="W19" t="n">
-        <v>282.1442207909896</v>
+        <v>247.6182183753613</v>
       </c>
       <c r="X19" t="n">
-        <v>207.3386747351009</v>
+        <v>172.8126723194725</v>
       </c>
       <c r="Y19" t="n">
-        <v>107.2244315604848</v>
+        <v>107.2244315604851</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1421.974056322151</v>
+        <v>1421.97405632215</v>
       </c>
       <c r="C20" t="n">
         <v>1196.487215703693</v>
       </c>
       <c r="D20" t="n">
-        <v>980.1101689796526</v>
+        <v>980.1101689796515</v>
       </c>
       <c r="E20" t="n">
-        <v>741.7713671344949</v>
+        <v>741.7713671344941</v>
       </c>
       <c r="F20" t="n">
-        <v>484.0670944934006</v>
+        <v>484.0670944934002</v>
       </c>
       <c r="G20" t="n">
-        <v>224.9262560246295</v>
+        <v>224.9262560246296</v>
       </c>
       <c r="H20" t="n">
-        <v>53.83874044805745</v>
+        <v>53.83874044805742</v>
       </c>
       <c r="I20" t="n">
-        <v>53.83874044805745</v>
+        <v>53.83874044805742</v>
       </c>
       <c r="J20" t="n">
         <v>168.779756956291</v>
@@ -5762,25 +5762,25 @@
         <v>1383.089750803576</v>
       </c>
       <c r="N20" t="n">
-        <v>1851.700290947844</v>
+        <v>1851.700290947843</v>
       </c>
       <c r="O20" t="n">
-        <v>2241.952946453912</v>
+        <v>2241.952946453911</v>
       </c>
       <c r="P20" t="n">
-        <v>2542.867099253002</v>
+        <v>2542.867099253001</v>
       </c>
       <c r="Q20" t="n">
-        <v>2691.937022402873</v>
+        <v>2691.937022402871</v>
       </c>
       <c r="R20" t="n">
-        <v>2691.937022402873</v>
+        <v>2691.937022402871</v>
       </c>
       <c r="S20" t="n">
-        <v>2672.918556851972</v>
+        <v>2672.918556851971</v>
       </c>
       <c r="T20" t="n">
-        <v>2607.266325580626</v>
+        <v>2607.266325580625</v>
       </c>
       <c r="U20" t="n">
         <v>2508.869205745618</v>
@@ -5789,13 +5789,13 @@
         <v>2328.336849690295</v>
       </c>
       <c r="W20" t="n">
-        <v>2122.248837596632</v>
+        <v>2122.248837596631</v>
       </c>
       <c r="X20" t="n">
-        <v>1896.665615166861</v>
+        <v>1896.66561516686</v>
       </c>
       <c r="Y20" t="n">
-        <v>1659.570677791434</v>
+        <v>1659.570677791433</v>
       </c>
     </row>
     <row r="21">
@@ -5823,31 +5823,31 @@
         <v>209.9815282035067</v>
       </c>
       <c r="H21" t="n">
-        <v>112.7112528957636</v>
+        <v>112.7112528957635</v>
       </c>
       <c r="I21" t="n">
-        <v>53.83874044805745</v>
+        <v>53.83874044805742</v>
       </c>
       <c r="J21" t="n">
-        <v>53.83874044805745</v>
+        <v>139.6691292591985</v>
       </c>
       <c r="K21" t="n">
-        <v>327.0431647853414</v>
+        <v>412.8735535964825</v>
       </c>
       <c r="L21" t="n">
-        <v>751.6437051866033</v>
+        <v>837.4740939977443</v>
       </c>
       <c r="M21" t="n">
-        <v>1305.269023619632</v>
+        <v>952.220381283669</v>
       </c>
       <c r="N21" t="n">
-        <v>1886.942059875301</v>
+        <v>1533.893417539338</v>
       </c>
       <c r="O21" t="n">
-        <v>2182.830012273536</v>
+        <v>1990.502375094602</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.619837881395</v>
+        <v>2344.292200702461</v>
       </c>
       <c r="Q21" t="n">
         <v>2536.619837881395</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>80.11598092484051</v>
+        <v>80.11598092484067</v>
       </c>
       <c r="C22" t="n">
-        <v>66.94692943525631</v>
+        <v>66.94692943525639</v>
       </c>
       <c r="D22" t="n">
-        <v>66.94692943525631</v>
+        <v>66.94692943525639</v>
       </c>
       <c r="E22" t="n">
-        <v>66.94692943525631</v>
+        <v>66.94692943525639</v>
       </c>
       <c r="F22" t="n">
-        <v>66.94692943525631</v>
+        <v>66.94692943525639</v>
       </c>
       <c r="G22" t="n">
-        <v>54.7056618706862</v>
+        <v>54.70566187068623</v>
       </c>
       <c r="H22" t="n">
-        <v>53.83874044805745</v>
+        <v>53.83874044805742</v>
       </c>
       <c r="I22" t="n">
-        <v>53.83874044805745</v>
+        <v>53.83874044805742</v>
       </c>
       <c r="J22" t="n">
-        <v>53.83874044805745</v>
+        <v>53.83874044805742</v>
       </c>
       <c r="K22" t="n">
         <v>113.8109628359076</v>
@@ -5935,25 +5935,25 @@
         <v>775.8427435439821</v>
       </c>
       <c r="S22" t="n">
-        <v>722.6154108793569</v>
+        <v>688.0894084637289</v>
       </c>
       <c r="T22" t="n">
-        <v>646.8727813697427</v>
+        <v>612.3467789541146</v>
       </c>
       <c r="U22" t="n">
-        <v>516.1420906176969</v>
+        <v>481.6160882020687</v>
       </c>
       <c r="V22" t="n">
-        <v>411.853704224855</v>
+        <v>377.3277018092268</v>
       </c>
       <c r="W22" t="n">
-        <v>282.1442207909896</v>
+        <v>247.6182183753613</v>
       </c>
       <c r="X22" t="n">
-        <v>207.3386747351009</v>
+        <v>172.8126723194725</v>
       </c>
       <c r="Y22" t="n">
-        <v>107.2244315604848</v>
+        <v>107.2244315604851</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5963,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1421.974056322152</v>
+        <v>1421.974056322151</v>
       </c>
       <c r="C23" t="n">
-        <v>1196.487215703695</v>
+        <v>1196.487215703693</v>
       </c>
       <c r="D23" t="n">
-        <v>980.1101689796537</v>
+        <v>980.1101689796524</v>
       </c>
       <c r="E23" t="n">
-        <v>741.7713671344961</v>
+        <v>741.7713671344947</v>
       </c>
       <c r="F23" t="n">
-        <v>484.0670944934022</v>
+        <v>484.0670944934004</v>
       </c>
       <c r="G23" t="n">
-        <v>224.9262560246295</v>
+        <v>224.9262560246296</v>
       </c>
       <c r="H23" t="n">
-        <v>53.83874044805745</v>
+        <v>53.83874044805744</v>
       </c>
       <c r="I23" t="n">
-        <v>53.83874044805745</v>
+        <v>53.83874044805744</v>
       </c>
       <c r="J23" t="n">
-        <v>168.779756956291</v>
+        <v>168.7797569562913</v>
       </c>
       <c r="K23" t="n">
-        <v>473.2797631944175</v>
+        <v>473.2797631944177</v>
       </c>
       <c r="L23" t="n">
-        <v>901.008953564358</v>
+        <v>901.0089535643582</v>
       </c>
       <c r="M23" t="n">
         <v>1383.089750803576</v>
@@ -6002,37 +6002,37 @@
         <v>1851.700290947844</v>
       </c>
       <c r="O23" t="n">
-        <v>2241.952946453912</v>
+        <v>2241.952946453911</v>
       </c>
       <c r="P23" t="n">
         <v>2542.867099253002</v>
       </c>
       <c r="Q23" t="n">
-        <v>2691.937022402873</v>
+        <v>2691.937022402872</v>
       </c>
       <c r="R23" t="n">
-        <v>2691.937022402873</v>
+        <v>2691.937022402872</v>
       </c>
       <c r="S23" t="n">
         <v>2672.918556851972</v>
       </c>
       <c r="T23" t="n">
-        <v>2607.266325580626</v>
+        <v>2607.266325580625</v>
       </c>
       <c r="U23" t="n">
-        <v>2508.86920574562</v>
+        <v>2508.869205745619</v>
       </c>
       <c r="V23" t="n">
-        <v>2328.336849690297</v>
+        <v>2328.336849690296</v>
       </c>
       <c r="W23" t="n">
-        <v>2122.248837596633</v>
+        <v>2122.248837596632</v>
       </c>
       <c r="X23" t="n">
-        <v>1896.665615166862</v>
+        <v>1896.665615166861</v>
       </c>
       <c r="Y23" t="n">
-        <v>1659.570677791436</v>
+        <v>1659.570677791434</v>
       </c>
     </row>
     <row r="24">
@@ -6063,7 +6063,7 @@
         <v>112.7112528957636</v>
       </c>
       <c r="I24" t="n">
-        <v>53.83874044805745</v>
+        <v>53.83874044805744</v>
       </c>
       <c r="J24" t="n">
         <v>139.6691292591985</v>
@@ -6078,7 +6078,7 @@
         <v>1391.099412430773</v>
       </c>
       <c r="N24" t="n">
-        <v>1972.772448686442</v>
+        <v>1533.893417539338</v>
       </c>
       <c r="O24" t="n">
         <v>1990.502375094602</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>80.11598092484051</v>
+        <v>80.11598092484078</v>
       </c>
       <c r="C25" t="n">
-        <v>66.94692943525631</v>
+        <v>66.94692943525648</v>
       </c>
       <c r="D25" t="n">
-        <v>66.94692943525631</v>
+        <v>66.94692943525648</v>
       </c>
       <c r="E25" t="n">
-        <v>66.94692943525631</v>
+        <v>66.94692943525648</v>
       </c>
       <c r="F25" t="n">
-        <v>66.94692943525631</v>
+        <v>66.94692943525648</v>
       </c>
       <c r="G25" t="n">
-        <v>54.7056618706862</v>
+        <v>54.70566187068628</v>
       </c>
       <c r="H25" t="n">
-        <v>53.83874044805745</v>
+        <v>53.83874044805744</v>
       </c>
       <c r="I25" t="n">
-        <v>53.83874044805745</v>
+        <v>53.83874044805744</v>
       </c>
       <c r="J25" t="n">
-        <v>53.83874044805745</v>
+        <v>53.83874044805744</v>
       </c>
       <c r="K25" t="n">
         <v>113.8109628359076</v>
@@ -6172,25 +6172,25 @@
         <v>775.8427435439821</v>
       </c>
       <c r="S25" t="n">
-        <v>688.0894084637283</v>
+        <v>722.6154108793569</v>
       </c>
       <c r="T25" t="n">
-        <v>612.3467789541141</v>
+        <v>646.8727813697426</v>
       </c>
       <c r="U25" t="n">
-        <v>481.6160882020683</v>
+        <v>516.1420906176967</v>
       </c>
       <c r="V25" t="n">
-        <v>377.3277018092264</v>
+        <v>411.8537042248547</v>
       </c>
       <c r="W25" t="n">
-        <v>247.618218375361</v>
+        <v>247.6182183753616</v>
       </c>
       <c r="X25" t="n">
-        <v>172.8126723194723</v>
+        <v>172.8126723194727</v>
       </c>
       <c r="Y25" t="n">
-        <v>107.2244315604848</v>
+        <v>107.2244315604852</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1800.806131362092</v>
+        <v>1800.806131362093</v>
       </c>
       <c r="C26" t="n">
-        <v>1522.974722173394</v>
+        <v>1522.974722173396</v>
       </c>
       <c r="D26" t="n">
-        <v>1254.253106879113</v>
+        <v>1254.253106879114</v>
       </c>
       <c r="E26" t="n">
-        <v>963.5697364637157</v>
+        <v>963.5697364637163</v>
       </c>
       <c r="F26" t="n">
-        <v>653.5208952523813</v>
+        <v>653.5208952523823</v>
       </c>
       <c r="G26" t="n">
-        <v>342.0354882133699</v>
+        <v>342.0354882133709</v>
       </c>
       <c r="H26" t="n">
         <v>118.6034040665579</v>
       </c>
       <c r="I26" t="n">
-        <v>69.79051292009471</v>
+        <v>69.79051292009473</v>
       </c>
       <c r="J26" t="n">
-        <v>286.7622421522014</v>
+        <v>207.1749387812027</v>
       </c>
       <c r="K26" t="n">
-        <v>693.292961114201</v>
+        <v>613.7056577432023</v>
       </c>
       <c r="L26" t="n">
-        <v>1223.052864208015</v>
+        <v>1143.465560837016</v>
       </c>
       <c r="M26" t="n">
-        <v>1807.164374171106</v>
+        <v>1727.577070800107</v>
       </c>
       <c r="N26" t="n">
-        <v>2377.805627039246</v>
+        <v>2298.218323668248</v>
       </c>
       <c r="O26" t="n">
-        <v>2790.501691898188</v>
+        <v>2790.501691898189</v>
       </c>
       <c r="P26" t="n">
-        <v>3193.446557421151</v>
+        <v>3193.446557421152</v>
       </c>
       <c r="Q26" t="n">
-        <v>3444.547193294894</v>
+        <v>3444.547193294895</v>
       </c>
       <c r="R26" t="n">
         <v>3489.525646004736</v>
       </c>
       <c r="S26" t="n">
-        <v>3418.162611883595</v>
+        <v>3418.162611883596</v>
       </c>
       <c r="T26" t="n">
-        <v>3300.165812042009</v>
+        <v>3300.16581204201</v>
       </c>
       <c r="U26" t="n">
-        <v>3149.424123636762</v>
+        <v>3149.424123636763</v>
       </c>
       <c r="V26" t="n">
-        <v>2916.547199011198</v>
+        <v>2916.547199011199</v>
       </c>
       <c r="W26" t="n">
-        <v>2658.114618347294</v>
+        <v>2658.114618347296</v>
       </c>
       <c r="X26" t="n">
-        <v>2380.186827347283</v>
+        <v>2380.186827347284</v>
       </c>
       <c r="Y26" t="n">
-        <v>2090.747321401616</v>
+        <v>2090.747321401617</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6300,7 @@
         <v>128.6630253678008</v>
       </c>
       <c r="I27" t="n">
-        <v>69.79051292009471</v>
+        <v>69.79051292009473</v>
       </c>
       <c r="J27" t="n">
         <v>155.6209017312358</v>
@@ -6358,43 +6358,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>431.4929364639241</v>
+        <v>431.4929364639236</v>
       </c>
       <c r="C28" t="n">
-        <v>365.9793164040996</v>
+        <v>365.9793164040991</v>
       </c>
       <c r="D28" t="n">
-        <v>317.0097727103575</v>
+        <v>317.009772710357</v>
       </c>
       <c r="E28" t="n">
-        <v>269.1031079501715</v>
+        <v>269.1031079501711</v>
       </c>
       <c r="F28" t="n">
-        <v>220.7248024544439</v>
+        <v>220.7248024544434</v>
       </c>
       <c r="G28" t="n">
-        <v>156.1389663196335</v>
+        <v>156.1389663196329</v>
       </c>
       <c r="H28" t="n">
-        <v>102.9274763267643</v>
+        <v>102.9274763267639</v>
       </c>
       <c r="I28" t="n">
-        <v>69.79051292009471</v>
+        <v>69.79051292009473</v>
       </c>
       <c r="J28" t="n">
         <v>129.004838580194</v>
       </c>
       <c r="K28" t="n">
-        <v>291.0077736919174</v>
+        <v>291.0077736919176</v>
       </c>
       <c r="L28" t="n">
-        <v>527.3875719627639</v>
+        <v>527.3875719627641</v>
       </c>
       <c r="M28" t="n">
-        <v>782.9880053175891</v>
+        <v>782.9880053175892</v>
       </c>
       <c r="N28" t="n">
-        <v>1038.171351430272</v>
+        <v>1038.171351430273</v>
       </c>
       <c r="O28" t="n">
         <v>1270.744756239239</v>
@@ -6406,28 +6406,28 @@
         <v>1546.457761761901</v>
       </c>
       <c r="R28" t="n">
-        <v>1511.45024522936</v>
+        <v>1511.450245229359</v>
       </c>
       <c r="S28" t="n">
         <v>1405.878343994494</v>
       </c>
       <c r="T28" t="n">
-        <v>1277.79114591464</v>
+        <v>1277.791145914639</v>
       </c>
       <c r="U28" t="n">
-        <v>1094.715886592354</v>
+        <v>1094.715886592353</v>
       </c>
       <c r="V28" t="n">
-        <v>938.0829316292715</v>
+        <v>938.0829316292707</v>
       </c>
       <c r="W28" t="n">
-        <v>756.0288796251658</v>
+        <v>756.028879625165</v>
       </c>
       <c r="X28" t="n">
-        <v>628.8787649990368</v>
+        <v>628.878764999036</v>
       </c>
       <c r="Y28" t="n">
-        <v>510.9459556698087</v>
+        <v>510.9459556698083</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1800.806131362093</v>
+        <v>1800.806131362091</v>
       </c>
       <c r="C29" t="n">
-        <v>1522.974722173396</v>
+        <v>1522.974722173394</v>
       </c>
       <c r="D29" t="n">
-        <v>1254.253106879114</v>
+        <v>1254.253106879113</v>
       </c>
       <c r="E29" t="n">
-        <v>963.5697364637164</v>
+        <v>963.5697364637149</v>
       </c>
       <c r="F29" t="n">
-        <v>653.5208952523819</v>
+        <v>653.5208952523808</v>
       </c>
       <c r="G29" t="n">
-        <v>342.0354882133706</v>
+        <v>342.0354882133693</v>
       </c>
       <c r="H29" t="n">
         <v>118.6034040665579</v>
       </c>
       <c r="I29" t="n">
-        <v>69.79051292009473</v>
+        <v>69.79051292009471</v>
       </c>
       <c r="J29" t="n">
-        <v>286.7622421522014</v>
+        <v>286.7622421522013</v>
       </c>
       <c r="K29" t="n">
-        <v>693.292961114201</v>
+        <v>693.2929611142008</v>
       </c>
       <c r="L29" t="n">
-        <v>1223.052864208015</v>
+        <v>1223.052864208014</v>
       </c>
       <c r="M29" t="n">
-        <v>1807.164374171106</v>
+        <v>1727.577070800107</v>
       </c>
       <c r="N29" t="n">
-        <v>2377.805627039246</v>
+        <v>2298.218323668247</v>
       </c>
       <c r="O29" t="n">
-        <v>2790.501691898189</v>
+        <v>2790.501691898188</v>
       </c>
       <c r="P29" t="n">
-        <v>3193.446557421152</v>
+        <v>3193.446557421151</v>
       </c>
       <c r="Q29" t="n">
-        <v>3444.547193294895</v>
+        <v>3444.547193294894</v>
       </c>
       <c r="R29" t="n">
         <v>3489.525646004736</v>
       </c>
       <c r="S29" t="n">
-        <v>3418.162611883596</v>
+        <v>3418.162611883595</v>
       </c>
       <c r="T29" t="n">
-        <v>3300.165812042009</v>
+        <v>3300.165812042008</v>
       </c>
       <c r="U29" t="n">
         <v>3149.424123636762</v>
       </c>
       <c r="V29" t="n">
-        <v>2916.547199011199</v>
+        <v>2916.547199011198</v>
       </c>
       <c r="W29" t="n">
-        <v>2658.114618347295</v>
+        <v>2658.114618347294</v>
       </c>
       <c r="X29" t="n">
-        <v>2380.186827347284</v>
+        <v>2380.186827347282</v>
       </c>
       <c r="Y29" t="n">
-        <v>2090.747321401617</v>
+        <v>2090.747321401615</v>
       </c>
     </row>
     <row r="30">
@@ -6516,49 +6516,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>936.6497109987307</v>
+        <v>936.6497109987305</v>
       </c>
       <c r="C30" t="n">
-        <v>774.9460382396854</v>
+        <v>774.9460382396852</v>
       </c>
       <c r="D30" t="n">
-        <v>636.1074012298975</v>
+        <v>636.1074012298973</v>
       </c>
       <c r="E30" t="n">
-        <v>489.0793912867687</v>
+        <v>489.0793912867686</v>
       </c>
       <c r="F30" t="n">
-        <v>354.385593236643</v>
+        <v>354.3855932366429</v>
       </c>
       <c r="G30" t="n">
         <v>225.933300675544</v>
       </c>
       <c r="H30" t="n">
-        <v>128.6630253678009</v>
+        <v>128.6630253678008</v>
       </c>
       <c r="I30" t="n">
-        <v>69.79051292009473</v>
+        <v>69.79051292009471</v>
       </c>
       <c r="J30" t="n">
-        <v>69.79051292009473</v>
+        <v>155.6209017312358</v>
       </c>
       <c r="K30" t="n">
-        <v>69.79051292009473</v>
+        <v>428.8253260685198</v>
       </c>
       <c r="L30" t="n">
-        <v>494.3910533213565</v>
+        <v>853.4258664697816</v>
       </c>
       <c r="M30" t="n">
-        <v>1048.016371754385</v>
+        <v>1407.05118490281</v>
       </c>
       <c r="N30" t="n">
-        <v>1629.689408010054</v>
+        <v>1549.845190011375</v>
       </c>
       <c r="O30" t="n">
-        <v>2086.298365565318</v>
+        <v>2006.45414756664</v>
       </c>
       <c r="P30" t="n">
-        <v>2440.088191173177</v>
+        <v>2360.243973174498</v>
       </c>
       <c r="Q30" t="n">
         <v>2552.571610353432</v>
@@ -6585,7 +6585,7 @@
         <v>1288.590480130413</v>
       </c>
       <c r="Y30" t="n">
-        <v>1096.069153779992</v>
+        <v>1096.069153779991</v>
       </c>
     </row>
     <row r="31">
@@ -6595,58 +6595,58 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>431.4929364639245</v>
+        <v>431.4929364639244</v>
       </c>
       <c r="C31" t="n">
-        <v>365.9793164041</v>
+        <v>365.9793164040998</v>
       </c>
       <c r="D31" t="n">
-        <v>317.0097727103579</v>
+        <v>317.0097727103577</v>
       </c>
       <c r="E31" t="n">
-        <v>269.103107950172</v>
+        <v>269.1031079501717</v>
       </c>
       <c r="F31" t="n">
-        <v>220.7248024544443</v>
+        <v>220.7248024544439</v>
       </c>
       <c r="G31" t="n">
-        <v>156.1389663196339</v>
+        <v>156.1389663196335</v>
       </c>
       <c r="H31" t="n">
         <v>102.9274763267643</v>
       </c>
       <c r="I31" t="n">
-        <v>69.79051292009473</v>
+        <v>69.79051292009471</v>
       </c>
       <c r="J31" t="n">
-        <v>129.0048385801944</v>
+        <v>129.004838580194</v>
       </c>
       <c r="K31" t="n">
-        <v>291.0077736919177</v>
+        <v>291.0077736919172</v>
       </c>
       <c r="L31" t="n">
-        <v>527.3875719627642</v>
+        <v>527.3875719627638</v>
       </c>
       <c r="M31" t="n">
-        <v>782.9880053175892</v>
+        <v>782.9880053175887</v>
       </c>
       <c r="N31" t="n">
-        <v>1038.171351430272</v>
+        <v>1038.171351430274</v>
       </c>
       <c r="O31" t="n">
-        <v>1270.744756239239</v>
+        <v>1270.74475623924</v>
       </c>
       <c r="P31" t="n">
-        <v>1463.193118019358</v>
+        <v>1463.193118019359</v>
       </c>
       <c r="Q31" t="n">
-        <v>1546.457761761901</v>
+        <v>1546.457761761902</v>
       </c>
       <c r="R31" t="n">
         <v>1511.45024522936</v>
       </c>
       <c r="S31" t="n">
-        <v>1405.878343994494</v>
+        <v>1405.878343994495</v>
       </c>
       <c r="T31" t="n">
         <v>1277.79114591464</v>
@@ -6655,16 +6655,16 @@
         <v>1094.715886592354</v>
       </c>
       <c r="V31" t="n">
-        <v>938.0829316292715</v>
+        <v>938.0829316292718</v>
       </c>
       <c r="W31" t="n">
-        <v>756.0288796251658</v>
+        <v>756.028879625166</v>
       </c>
       <c r="X31" t="n">
-        <v>628.8787649990368</v>
+        <v>628.8787649990369</v>
       </c>
       <c r="Y31" t="n">
-        <v>510.9459556698092</v>
+        <v>510.9459556698091</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1781.694318005883</v>
+        <v>1781.694318005882</v>
       </c>
       <c r="C32" t="n">
-        <v>1506.478771539125</v>
+        <v>1506.478771539124</v>
       </c>
       <c r="D32" t="n">
-        <v>1240.373018966783</v>
+        <v>1240.373018966782</v>
       </c>
       <c r="E32" t="n">
-        <v>952.3055112733244</v>
+        <v>952.3055112733234</v>
       </c>
       <c r="F32" t="n">
-        <v>644.8725327839293</v>
+        <v>644.8725327839284</v>
       </c>
       <c r="G32" t="n">
-        <v>336.0029884668572</v>
+        <v>336.0029884668566</v>
       </c>
       <c r="H32" t="n">
-        <v>115.1867670419841</v>
+        <v>115.1867670419839</v>
       </c>
       <c r="I32" t="n">
-        <v>68.98973861746022</v>
+        <v>68.9897386174602</v>
       </c>
       <c r="J32" t="n">
-        <v>288.5252749033396</v>
+        <v>288.5252749033397</v>
       </c>
       <c r="K32" t="n">
-        <v>697.6198009191119</v>
+        <v>697.6198009191122</v>
       </c>
       <c r="L32" t="n">
-        <v>1229.943511066698</v>
+        <v>1229.943511066699</v>
       </c>
       <c r="M32" t="n">
-        <v>1816.618828083562</v>
+        <v>1712.024308305917</v>
       </c>
       <c r="N32" t="n">
-        <v>2389.823888005475</v>
+        <v>2285.22936822783</v>
       </c>
       <c r="O32" t="n">
-        <v>2884.671063289189</v>
+        <v>2742.771555605144</v>
       </c>
       <c r="P32" t="n">
-        <v>3185.585216088279</v>
+        <v>3148.28022818188</v>
       </c>
       <c r="Q32" t="n">
-        <v>3439.249659015795</v>
+        <v>3401.944671109396</v>
       </c>
       <c r="R32" t="n">
-        <v>3449.486930873011</v>
+        <v>3449.48693087301</v>
       </c>
       <c r="S32" t="n">
-        <v>3380.73975947381</v>
+        <v>3380.739759473809</v>
       </c>
       <c r="T32" t="n">
-        <v>3265.358822354163</v>
+        <v>3265.358822354161</v>
       </c>
       <c r="U32" t="n">
-        <v>3117.232996670856</v>
+        <v>3117.232996670854</v>
       </c>
       <c r="V32" t="n">
-        <v>2886.971934767232</v>
+        <v>2886.97193476723</v>
       </c>
       <c r="W32" t="n">
-        <v>2631.155216825267</v>
+        <v>2631.155216825266</v>
       </c>
       <c r="X32" t="n">
-        <v>2355.843288547195</v>
+        <v>2355.843288547193</v>
       </c>
       <c r="Y32" t="n">
-        <v>2069.019645323468</v>
+        <v>2069.019645323466</v>
       </c>
     </row>
     <row r="33">
@@ -6774,19 +6774,19 @@
         <v>127.8622510651663</v>
       </c>
       <c r="I33" t="n">
-        <v>68.98973861746022</v>
+        <v>68.9897386174602</v>
       </c>
       <c r="J33" t="n">
-        <v>154.8201274286013</v>
+        <v>68.9897386174602</v>
       </c>
       <c r="K33" t="n">
-        <v>428.0245517658853</v>
+        <v>342.1941629547442</v>
       </c>
       <c r="L33" t="n">
-        <v>852.625092167147</v>
+        <v>766.794703356006</v>
       </c>
       <c r="M33" t="n">
-        <v>1406.250410600175</v>
+        <v>1320.420021789034</v>
       </c>
       <c r="N33" t="n">
         <v>1549.04441570874</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>412.3811231077143</v>
+        <v>412.3811231077133</v>
       </c>
       <c r="C34" t="n">
-        <v>349.4833657698291</v>
+        <v>349.4833657698283</v>
       </c>
       <c r="D34" t="n">
-        <v>303.1296847980263</v>
+        <v>303.1296847980256</v>
       </c>
       <c r="E34" t="n">
-        <v>257.8388827597797</v>
+        <v>257.8388827597791</v>
       </c>
       <c r="F34" t="n">
-        <v>212.0764399859913</v>
+        <v>212.0764399859909</v>
       </c>
       <c r="G34" t="n">
-        <v>150.1064665731202</v>
+        <v>150.1064665731199</v>
       </c>
       <c r="H34" t="n">
-        <v>99.51083930219048</v>
+        <v>99.51083930219033</v>
       </c>
       <c r="I34" t="n">
-        <v>68.98973861746022</v>
+        <v>68.9897386174602</v>
       </c>
       <c r="J34" t="n">
-        <v>130.7678713313323</v>
+        <v>130.7678713313324</v>
       </c>
       <c r="K34" t="n">
-        <v>295.3346134968283</v>
+        <v>295.3346134968286</v>
       </c>
       <c r="L34" t="n">
-        <v>534.2782188214476</v>
+        <v>534.278218821448</v>
       </c>
       <c r="M34" t="n">
-        <v>792.4424592300452</v>
+        <v>792.4424592300459</v>
       </c>
       <c r="N34" t="n">
-        <v>1050.189612396501</v>
+        <v>1050.189612396502</v>
       </c>
       <c r="O34" t="n">
-        <v>1222.96256427803</v>
+        <v>1222.962564278027</v>
       </c>
       <c r="P34" t="n">
-        <v>1417.974733111922</v>
+        <v>1417.974733111919</v>
       </c>
       <c r="Q34" t="n">
-        <v>1503.803183908238</v>
+        <v>1503.803183908235</v>
       </c>
       <c r="R34" t="n">
-        <v>1471.411530097635</v>
+        <v>1471.411530097633</v>
       </c>
       <c r="S34" t="n">
-        <v>1368.455491584709</v>
+        <v>1368.455491584707</v>
       </c>
       <c r="T34" t="n">
-        <v>1242.984156226794</v>
+        <v>1242.984156226792</v>
       </c>
       <c r="U34" t="n">
-        <v>1062.524759626447</v>
+        <v>1062.524759626445</v>
       </c>
       <c r="V34" t="n">
-        <v>908.5076673853042</v>
+        <v>908.5076673853026</v>
       </c>
       <c r="W34" t="n">
-        <v>729.0694781031378</v>
+        <v>729.0694781031364</v>
       </c>
       <c r="X34" t="n">
-        <v>604.5352261989481</v>
+        <v>604.5352261989468</v>
       </c>
       <c r="Y34" t="n">
-        <v>489.2182795916596</v>
+        <v>489.2182795916585</v>
       </c>
     </row>
     <row r="35">
@@ -6911,55 +6911,55 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1421.974056322151</v>
+        <v>1421.974056322152</v>
       </c>
       <c r="C35" t="n">
         <v>1196.487215703694</v>
       </c>
       <c r="D35" t="n">
-        <v>980.1101689796531</v>
+        <v>980.1101689796533</v>
       </c>
       <c r="E35" t="n">
-        <v>741.7713671344953</v>
+        <v>741.7713671344952</v>
       </c>
       <c r="F35" t="n">
-        <v>484.0670944934011</v>
+        <v>484.0670944934013</v>
       </c>
       <c r="G35" t="n">
         <v>224.9262560246296</v>
       </c>
       <c r="H35" t="n">
-        <v>53.83874044805744</v>
+        <v>53.83874044805745</v>
       </c>
       <c r="I35" t="n">
-        <v>53.83874044805744</v>
+        <v>53.83874044805745</v>
       </c>
       <c r="J35" t="n">
-        <v>168.7797569562915</v>
+        <v>168.779756956291</v>
       </c>
       <c r="K35" t="n">
-        <v>473.279763194418</v>
+        <v>473.2797631944175</v>
       </c>
       <c r="L35" t="n">
-        <v>901.0089535643585</v>
+        <v>901.008953564358</v>
       </c>
       <c r="M35" t="n">
-        <v>1383.089750803577</v>
+        <v>1383.089750803576</v>
       </c>
       <c r="N35" t="n">
-        <v>1851.700290947844</v>
+        <v>1851.700290947843</v>
       </c>
       <c r="O35" t="n">
-        <v>2241.952946453912</v>
+        <v>2241.952946453911</v>
       </c>
       <c r="P35" t="n">
-        <v>2542.867099253002</v>
+        <v>2542.867099253001</v>
       </c>
       <c r="Q35" t="n">
-        <v>2691.937022402872</v>
+        <v>2691.937022402873</v>
       </c>
       <c r="R35" t="n">
-        <v>2691.937022402872</v>
+        <v>2691.937022402873</v>
       </c>
       <c r="S35" t="n">
         <v>2672.918556851972</v>
@@ -6968,16 +6968,16 @@
         <v>2607.266325580626</v>
       </c>
       <c r="U35" t="n">
-        <v>2508.869205745619</v>
+        <v>2508.86920574562</v>
       </c>
       <c r="V35" t="n">
-        <v>2328.336849690296</v>
+        <v>2328.336849690297</v>
       </c>
       <c r="W35" t="n">
         <v>2122.248837596633</v>
       </c>
       <c r="X35" t="n">
-        <v>1896.665615166861</v>
+        <v>1896.665615166862</v>
       </c>
       <c r="Y35" t="n">
         <v>1659.570677791435</v>
@@ -7011,25 +7011,25 @@
         <v>112.7112528957636</v>
       </c>
       <c r="I36" t="n">
-        <v>53.83874044805744</v>
+        <v>53.83874044805745</v>
       </c>
       <c r="J36" t="n">
         <v>139.6691292591985</v>
       </c>
       <c r="K36" t="n">
-        <v>166.3221596283127</v>
+        <v>412.8735535964826</v>
       </c>
       <c r="L36" t="n">
-        <v>590.9227000295745</v>
+        <v>837.4740939977444</v>
       </c>
       <c r="M36" t="n">
-        <v>1144.548018462603</v>
+        <v>1391.099412430773</v>
       </c>
       <c r="N36" t="n">
-        <v>1726.221054718272</v>
+        <v>1972.772448686442</v>
       </c>
       <c r="O36" t="n">
-        <v>2182.830012273536</v>
+        <v>2429.381406241706</v>
       </c>
       <c r="P36" t="n">
         <v>2536.619837881395</v>
@@ -7087,13 +7087,13 @@
         <v>54.70566187068628</v>
       </c>
       <c r="H37" t="n">
-        <v>53.83874044805744</v>
+        <v>53.83874044805745</v>
       </c>
       <c r="I37" t="n">
-        <v>53.83874044805744</v>
+        <v>53.83874044805745</v>
       </c>
       <c r="J37" t="n">
-        <v>53.83874044805744</v>
+        <v>53.83874044805745</v>
       </c>
       <c r="K37" t="n">
         <v>113.8109628359076</v>
@@ -7114,28 +7114,28 @@
         <v>775.8427435439821</v>
       </c>
       <c r="Q37" t="n">
-        <v>756.695647348359</v>
+        <v>775.8427435439821</v>
       </c>
       <c r="R37" t="n">
-        <v>756.695647348359</v>
+        <v>775.8427435439821</v>
       </c>
       <c r="S37" t="n">
-        <v>688.0894084637292</v>
+        <v>722.6154108793569</v>
       </c>
       <c r="T37" t="n">
-        <v>612.3467789541149</v>
+        <v>646.8727813697426</v>
       </c>
       <c r="U37" t="n">
-        <v>481.616088202069</v>
+        <v>516.1420906176967</v>
       </c>
       <c r="V37" t="n">
-        <v>377.3277018092271</v>
+        <v>411.8537042248547</v>
       </c>
       <c r="W37" t="n">
-        <v>247.6182183753616</v>
+        <v>282.1442207909893</v>
       </c>
       <c r="X37" t="n">
-        <v>172.8126723194727</v>
+        <v>207.3386747351004</v>
       </c>
       <c r="Y37" t="n">
         <v>107.2244315604852</v>
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1421.974056322151</v>
+        <v>1421.97405632215</v>
       </c>
       <c r="C38" t="n">
-        <v>1196.487215703694</v>
+        <v>1196.487215703693</v>
       </c>
       <c r="D38" t="n">
-        <v>980.1101689796531</v>
+        <v>980.1101689796524</v>
       </c>
       <c r="E38" t="n">
-        <v>741.7713671344954</v>
+        <v>741.7713671344947</v>
       </c>
       <c r="F38" t="n">
-        <v>484.0670944934012</v>
+        <v>484.0670944934004</v>
       </c>
       <c r="G38" t="n">
-        <v>224.9262560246295</v>
+        <v>224.9262560246296</v>
       </c>
       <c r="H38" t="n">
-        <v>53.83874044805744</v>
+        <v>53.83874044805742</v>
       </c>
       <c r="I38" t="n">
-        <v>53.83874044805744</v>
+        <v>53.83874044805742</v>
       </c>
       <c r="J38" t="n">
         <v>168.779756956291</v>
@@ -7193,31 +7193,31 @@
         <v>2542.867099253001</v>
       </c>
       <c r="Q38" t="n">
-        <v>2691.937022402872</v>
+        <v>2691.937022402871</v>
       </c>
       <c r="R38" t="n">
-        <v>2691.937022402872</v>
+        <v>2691.937022402871</v>
       </c>
       <c r="S38" t="n">
-        <v>2672.918556851972</v>
+        <v>2672.918556851971</v>
       </c>
       <c r="T38" t="n">
-        <v>2607.266325580626</v>
+        <v>2607.266325580625</v>
       </c>
       <c r="U38" t="n">
-        <v>2508.86920574562</v>
+        <v>2508.869205745619</v>
       </c>
       <c r="V38" t="n">
         <v>2328.336849690296</v>
       </c>
       <c r="W38" t="n">
-        <v>2122.248837596633</v>
+        <v>2122.248837596632</v>
       </c>
       <c r="X38" t="n">
         <v>1896.665615166861</v>
       </c>
       <c r="Y38" t="n">
-        <v>1659.570677791435</v>
+        <v>1659.570677791434</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7245,31 @@
         <v>209.9815282035067</v>
       </c>
       <c r="H39" t="n">
-        <v>112.7112528957636</v>
+        <v>112.7112528957635</v>
       </c>
       <c r="I39" t="n">
-        <v>53.83874044805744</v>
+        <v>53.83874044805742</v>
       </c>
       <c r="J39" t="n">
-        <v>53.83874044805744</v>
+        <v>139.6691292591985</v>
       </c>
       <c r="K39" t="n">
-        <v>53.83874044805744</v>
+        <v>412.8735535964825</v>
       </c>
       <c r="L39" t="n">
-        <v>478.4392808493192</v>
+        <v>837.4740939977443</v>
       </c>
       <c r="M39" t="n">
-        <v>1032.064599282347</v>
+        <v>1391.099412430773</v>
       </c>
       <c r="N39" t="n">
-        <v>1613.737635538016</v>
+        <v>1972.772448686442</v>
       </c>
       <c r="O39" t="n">
-        <v>2070.346593093281</v>
+        <v>1990.502375094602</v>
       </c>
       <c r="P39" t="n">
-        <v>2424.136418701139</v>
+        <v>2344.292200702461</v>
       </c>
       <c r="Q39" t="n">
         <v>2536.619837881395</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>80.11598092484051</v>
+        <v>80.11598092484067</v>
       </c>
       <c r="C40" t="n">
-        <v>66.94692943525631</v>
+        <v>66.94692943525639</v>
       </c>
       <c r="D40" t="n">
-        <v>66.94692943525631</v>
+        <v>66.94692943525639</v>
       </c>
       <c r="E40" t="n">
-        <v>66.94692943525631</v>
+        <v>66.94692943525639</v>
       </c>
       <c r="F40" t="n">
-        <v>66.94692943525631</v>
+        <v>66.94692943525639</v>
       </c>
       <c r="G40" t="n">
-        <v>54.70566187068619</v>
+        <v>54.70566187068623</v>
       </c>
       <c r="H40" t="n">
-        <v>53.83874044805744</v>
+        <v>53.83874044805742</v>
       </c>
       <c r="I40" t="n">
-        <v>53.83874044805744</v>
+        <v>53.83874044805742</v>
       </c>
       <c r="J40" t="n">
-        <v>53.83874044805744</v>
+        <v>53.83874044805742</v>
       </c>
       <c r="K40" t="n">
         <v>113.8109628359076</v>
@@ -7351,31 +7351,31 @@
         <v>775.8427435439821</v>
       </c>
       <c r="Q40" t="n">
-        <v>775.8427435439821</v>
+        <v>756.695647348359</v>
       </c>
       <c r="R40" t="n">
-        <v>775.8427435439821</v>
+        <v>756.695647348359</v>
       </c>
       <c r="S40" t="n">
-        <v>722.6154108793569</v>
+        <v>703.4683146837338</v>
       </c>
       <c r="T40" t="n">
-        <v>612.3467789541141</v>
+        <v>612.3467789541146</v>
       </c>
       <c r="U40" t="n">
-        <v>481.6160882020683</v>
+        <v>481.6160882020687</v>
       </c>
       <c r="V40" t="n">
-        <v>377.3277018092264</v>
+        <v>377.3277018092268</v>
       </c>
       <c r="W40" t="n">
-        <v>247.618218375361</v>
+        <v>247.6182183753613</v>
       </c>
       <c r="X40" t="n">
-        <v>172.8126723194723</v>
+        <v>172.8126723194725</v>
       </c>
       <c r="Y40" t="n">
-        <v>107.2244315604848</v>
+        <v>107.2244315604851</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1347.43881333993</v>
+        <v>1166.03961849798</v>
       </c>
       <c r="C41" t="n">
-        <v>1089.960167993452</v>
+        <v>908.5609731515019</v>
       </c>
       <c r="D41" t="n">
-        <v>841.5913165413899</v>
+        <v>660.1921216994397</v>
       </c>
       <c r="E41" t="n">
-        <v>571.2607099682119</v>
+        <v>389.8615151262607</v>
       </c>
       <c r="F41" t="n">
-        <v>373.4315109490936</v>
+        <v>256.9180607526508</v>
       </c>
       <c r="G41" t="n">
-        <v>82.29886775230148</v>
+        <v>256.9180607526508</v>
       </c>
       <c r="H41" t="n">
-        <v>82.29886775230148</v>
+        <v>53.83874044805742</v>
       </c>
       <c r="I41" t="n">
-        <v>53.83874044805744</v>
+        <v>53.83874044805742</v>
       </c>
       <c r="J41" t="n">
-        <v>168.7797569562911</v>
+        <v>168.779756956291</v>
       </c>
       <c r="K41" t="n">
-        <v>473.2797631944176</v>
+        <v>473.2797631944175</v>
       </c>
       <c r="L41" t="n">
-        <v>901.0089535643581</v>
+        <v>901.008953564358</v>
       </c>
       <c r="M41" t="n">
         <v>1383.089750803576</v>
       </c>
       <c r="N41" t="n">
-        <v>1851.700290947844</v>
+        <v>1851.700290947843</v>
       </c>
       <c r="O41" t="n">
-        <v>2241.952946453912</v>
+        <v>2241.952946453911</v>
       </c>
       <c r="P41" t="n">
-        <v>2542.867099253002</v>
+        <v>2542.867099253001</v>
       </c>
       <c r="Q41" t="n">
-        <v>2691.937022402872</v>
+        <v>2691.937022402871</v>
       </c>
       <c r="R41" t="n">
-        <v>2691.937022402872</v>
+        <v>2691.937022402871</v>
       </c>
       <c r="S41" t="n">
-        <v>2691.937022402872</v>
+        <v>2640.92675212395</v>
       </c>
       <c r="T41" t="n">
-        <v>2594.292986403505</v>
+        <v>2543.282716124582</v>
       </c>
       <c r="U41" t="n">
-        <v>2594.292986403505</v>
+        <v>2412.893791561555</v>
       </c>
       <c r="V41" t="n">
-        <v>2381.76882562016</v>
+        <v>2200.36963077821</v>
       </c>
       <c r="W41" t="n">
-        <v>2143.689008798475</v>
+        <v>1962.289813956525</v>
       </c>
       <c r="X41" t="n">
-        <v>1886.113981640683</v>
+        <v>1704.714786798733</v>
       </c>
       <c r="Y41" t="n">
-        <v>1617.027239537235</v>
+        <v>1435.628044695285</v>
       </c>
     </row>
     <row r="42">
@@ -7482,31 +7482,31 @@
         <v>209.9815282035067</v>
       </c>
       <c r="H42" t="n">
-        <v>112.7112528957636</v>
+        <v>112.7112528957635</v>
       </c>
       <c r="I42" t="n">
-        <v>53.83874044805744</v>
+        <v>53.83874044805742</v>
       </c>
       <c r="J42" t="n">
-        <v>53.83874044805744</v>
+        <v>139.6691292591985</v>
       </c>
       <c r="K42" t="n">
-        <v>327.0431647853414</v>
+        <v>412.8735535964825</v>
       </c>
       <c r="L42" t="n">
-        <v>751.6437051866033</v>
+        <v>837.4740939977443</v>
       </c>
       <c r="M42" t="n">
-        <v>1305.269023619632</v>
+        <v>1391.099412430773</v>
       </c>
       <c r="N42" t="n">
-        <v>1886.942059875301</v>
+        <v>1972.772448686442</v>
       </c>
       <c r="O42" t="n">
-        <v>2343.551017430565</v>
+        <v>1990.502375094602</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.619837881395</v>
+        <v>2344.292200702461</v>
       </c>
       <c r="Q42" t="n">
         <v>2536.619837881395</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>273.0718170963527</v>
+        <v>273.0718170963537</v>
       </c>
       <c r="C43" t="n">
-        <v>227.9109608787473</v>
+        <v>227.9109608787482</v>
       </c>
       <c r="D43" t="n">
-        <v>199.2941810272244</v>
+        <v>199.2941810272251</v>
       </c>
       <c r="E43" t="n">
-        <v>171.7402801092576</v>
+        <v>171.7402801092582</v>
       </c>
       <c r="F43" t="n">
-        <v>143.714738455749</v>
+        <v>143.7147384557495</v>
       </c>
       <c r="G43" t="n">
-        <v>99.48166616315777</v>
+        <v>99.48166616315805</v>
       </c>
       <c r="H43" t="n">
-        <v>66.62294001250787</v>
+        <v>66.622940012508</v>
       </c>
       <c r="I43" t="n">
-        <v>53.83874044805744</v>
+        <v>53.83874044805742</v>
       </c>
       <c r="J43" t="n">
-        <v>133.0008099499158</v>
+        <v>53.83874044805742</v>
       </c>
       <c r="K43" t="n">
-        <v>192.973032337766</v>
+        <v>113.8109628359076</v>
       </c>
       <c r="L43" t="n">
-        <v>449.3005744503715</v>
+        <v>248.160048382881</v>
       </c>
       <c r="M43" t="n">
-        <v>602.8702950813233</v>
+        <v>523.7082255794647</v>
       </c>
       <c r="N43" t="n">
-        <v>756.0229284701334</v>
+        <v>758.7105825230866</v>
       </c>
       <c r="O43" t="n">
-        <v>1008.544077120859</v>
+        <v>889.2532746081799</v>
       </c>
       <c r="P43" t="n">
-        <v>1101.649380230055</v>
+        <v>1101.649380230058</v>
       </c>
       <c r="Q43" t="n">
-        <v>1204.861767814357</v>
+        <v>1204.86176781436</v>
       </c>
       <c r="R43" t="n">
-        <v>1190.207015124035</v>
+        <v>1190.207015124037</v>
       </c>
       <c r="S43" t="n">
-        <v>1104.987877731388</v>
+        <v>1104.987877731391</v>
       </c>
       <c r="T43" t="n">
-        <v>997.2534434937531</v>
+        <v>997.2534434937552</v>
       </c>
       <c r="U43" t="n">
-        <v>834.5309480136862</v>
+        <v>834.530948013688</v>
       </c>
       <c r="V43" t="n">
-        <v>698.2507568928231</v>
+        <v>698.2507568928248</v>
       </c>
       <c r="W43" t="n">
-        <v>536.5494687309366</v>
+        <v>536.5494687309381</v>
       </c>
       <c r="X43" t="n">
-        <v>429.7521179470268</v>
+        <v>429.752117947028</v>
       </c>
       <c r="Y43" t="n">
-        <v>332.1720724600182</v>
+        <v>332.1720724600193</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1410.845564385684</v>
+        <v>1166.03961849798</v>
       </c>
       <c r="C44" t="n">
-        <v>1153.366919039206</v>
+        <v>908.5609731515017</v>
       </c>
       <c r="D44" t="n">
-        <v>904.9980675871436</v>
+        <v>660.1921216994397</v>
       </c>
       <c r="E44" t="n">
-        <v>634.667461013965</v>
+        <v>546.6141381217665</v>
       </c>
       <c r="F44" t="n">
-        <v>344.9713836448497</v>
+        <v>256.9180607526508</v>
       </c>
       <c r="G44" t="n">
-        <v>53.83874044805744</v>
+        <v>256.9180607526508</v>
       </c>
       <c r="H44" t="n">
-        <v>53.83874044805744</v>
+        <v>53.83874044805742</v>
       </c>
       <c r="I44" t="n">
-        <v>53.83874044805744</v>
+        <v>53.83874044805742</v>
       </c>
       <c r="J44" t="n">
         <v>168.779756956291</v>
@@ -7670,28 +7670,28 @@
         <v>2691.937022402872</v>
       </c>
       <c r="R44" t="n">
-        <v>2691.937022402872</v>
+        <v>2691.937022402871</v>
       </c>
       <c r="S44" t="n">
-        <v>2673.208537228308</v>
+        <v>2640.92675212395</v>
       </c>
       <c r="T44" t="n">
-        <v>2575.56450122894</v>
+        <v>2543.282716124582</v>
       </c>
       <c r="U44" t="n">
-        <v>2445.175576665913</v>
+        <v>2412.893791561555</v>
       </c>
       <c r="V44" t="n">
-        <v>2445.175576665913</v>
+        <v>2200.369630778211</v>
       </c>
       <c r="W44" t="n">
-        <v>2207.095759844229</v>
+        <v>1962.289813956525</v>
       </c>
       <c r="X44" t="n">
-        <v>1949.520732686437</v>
+        <v>1704.714786798733</v>
       </c>
       <c r="Y44" t="n">
-        <v>1680.433990582989</v>
+        <v>1435.628044695285</v>
       </c>
     </row>
     <row r="45">
@@ -7719,16 +7719,16 @@
         <v>209.9815282035067</v>
       </c>
       <c r="H45" t="n">
-        <v>112.7112528957636</v>
+        <v>112.7112528957635</v>
       </c>
       <c r="I45" t="n">
-        <v>53.83874044805744</v>
+        <v>53.83874044805742</v>
       </c>
       <c r="J45" t="n">
-        <v>53.83874044805744</v>
+        <v>125.3906385133566</v>
       </c>
       <c r="K45" t="n">
-        <v>53.83874044805744</v>
+        <v>398.5950628506406</v>
       </c>
       <c r="L45" t="n">
         <v>398.5950628506406</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>273.0718170963525</v>
+        <v>273.0718170963537</v>
       </c>
       <c r="C46" t="n">
-        <v>227.9109608787471</v>
+        <v>227.9109608787482</v>
       </c>
       <c r="D46" t="n">
-        <v>199.2941810272243</v>
+        <v>199.2941810272251</v>
       </c>
       <c r="E46" t="n">
-        <v>171.7402801092575</v>
+        <v>171.7402801092582</v>
       </c>
       <c r="F46" t="n">
-        <v>143.7147384557489</v>
+        <v>143.7147384557495</v>
       </c>
       <c r="G46" t="n">
-        <v>99.48166616315771</v>
+        <v>99.48166616315805</v>
       </c>
       <c r="H46" t="n">
-        <v>66.62294001250784</v>
+        <v>66.622940012508</v>
       </c>
       <c r="I46" t="n">
-        <v>53.83874044805744</v>
+        <v>53.83874044805742</v>
       </c>
       <c r="J46" t="n">
-        <v>53.83874044805744</v>
+        <v>53.83874044805742</v>
       </c>
       <c r="K46" t="n">
-        <v>113.8109628359076</v>
+        <v>235.7894194015396</v>
       </c>
       <c r="L46" t="n">
-        <v>311.2437029563596</v>
+        <v>451.9882285033248</v>
       </c>
       <c r="M46" t="n">
-        <v>586.7918801529436</v>
+        <v>727.5364056999085</v>
       </c>
       <c r="N46" t="n">
-        <v>861.9229701073857</v>
+        <v>880.6890390887186</v>
       </c>
       <c r="O46" t="n">
-        <v>1114.444118758111</v>
+        <v>1011.231731173812</v>
       </c>
       <c r="P46" t="n">
-        <v>1204.861767814357</v>
+        <v>1101.649380230058</v>
       </c>
       <c r="Q46" t="n">
-        <v>1204.861767814357</v>
+        <v>1204.86176781436</v>
       </c>
       <c r="R46" t="n">
-        <v>1190.207015124035</v>
+        <v>1190.207015124037</v>
       </c>
       <c r="S46" t="n">
-        <v>1104.987877731388</v>
+        <v>1104.987877731391</v>
       </c>
       <c r="T46" t="n">
-        <v>997.2534434937529</v>
+        <v>997.2534434937552</v>
       </c>
       <c r="U46" t="n">
-        <v>834.5309480136859</v>
+        <v>834.530948013688</v>
       </c>
       <c r="V46" t="n">
-        <v>698.2507568928229</v>
+        <v>698.2507568928248</v>
       </c>
       <c r="W46" t="n">
-        <v>536.5494687309364</v>
+        <v>536.5494687309381</v>
       </c>
       <c r="X46" t="n">
-        <v>429.7521179470265</v>
+        <v>429.752117947028</v>
       </c>
       <c r="Y46" t="n">
-        <v>332.1720724600179</v>
+        <v>332.1720724600193</v>
       </c>
     </row>
   </sheetData>
@@ -8453,13 +8453,13 @@
         <v>157.109476210864</v>
       </c>
       <c r="K8" t="n">
-        <v>178.8230039740467</v>
+        <v>188.8326827569781</v>
       </c>
       <c r="L8" t="n">
         <v>191.5602121631146</v>
       </c>
       <c r="M8" t="n">
-        <v>196.7615618141134</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N8" t="n">
         <v>186.3981141722301</v>
@@ -8468,10 +8468,10 @@
         <v>196.9644755630518</v>
       </c>
       <c r="P8" t="n">
-        <v>187.8768090511565</v>
+        <v>197.4820563681108</v>
       </c>
       <c r="Q8" t="n">
-        <v>190.6330518059216</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R8" t="n">
         <v>85.43134583487716</v>
@@ -8535,22 +8535,22 @@
         <v>122.005847949598</v>
       </c>
       <c r="L9" t="n">
-        <v>122.5851123540791</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M9" t="n">
-        <v>125.0891498785942</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N9" t="n">
-        <v>106.7151410677083</v>
+        <v>116.7248198506397</v>
       </c>
       <c r="O9" t="n">
-        <v>115.8594486111111</v>
+        <v>125.8691273940425</v>
       </c>
       <c r="P9" t="n">
-        <v>108.8542060241433</v>
+        <v>118.4594533410977</v>
       </c>
       <c r="Q9" t="n">
-        <v>123.7448702278239</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8614,19 +8614,19 @@
         <v>104.82327226356</v>
       </c>
       <c r="L10" t="n">
-        <v>119.1990467954604</v>
+        <v>119.6034782614375</v>
       </c>
       <c r="M10" t="n">
-        <v>122.8868782403605</v>
+        <v>122.4824467743834</v>
       </c>
       <c r="N10" t="n">
-        <v>113.7541836609333</v>
+        <v>103.744504878002</v>
       </c>
       <c r="O10" t="n">
         <v>122.5056162750536</v>
       </c>
       <c r="P10" t="n">
-        <v>111.9040032899324</v>
+        <v>121.9136820728638</v>
       </c>
       <c r="Q10" t="n">
         <v>84.9458458910769</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>219.8255997236959</v>
+        <v>219.8255997236956</v>
       </c>
       <c r="K11" t="n">
         <v>421.3890363425141</v>
@@ -8708,7 +8708,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q11" t="n">
-        <v>276.0094878578772</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R11" t="n">
         <v>85.43134583487716</v>
@@ -8766,10 +8766,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>77.22098350703546</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
-        <v>343.8048081163522</v>
+        <v>257.8561156524676</v>
       </c>
       <c r="L12" t="n">
         <v>482.0924488944969</v>
@@ -8778,13 +8778,13 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
-        <v>266.5302964082732</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O12" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
-        <v>414.0015992319183</v>
+        <v>56.63813902196028</v>
       </c>
       <c r="Q12" t="n">
         <v>273.1004740566038</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>219.8255997236969</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K14" t="n">
         <v>421.3890363425141</v>
@@ -9003,7 +9003,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>163.9183459425315</v>
+        <v>77.22098350703547</v>
       </c>
       <c r="K15" t="n">
         <v>343.8048081163522</v>
@@ -9012,10 +9012,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
-        <v>605.4165828749999</v>
+        <v>248.8017926366538</v>
       </c>
       <c r="N15" t="n">
-        <v>179.8329339727773</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
@@ -9173,7 +9173,7 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N17" t="n">
-        <v>568.5510017355793</v>
+        <v>568.5510017355789</v>
       </c>
       <c r="O17" t="n">
         <v>495.0402356415689</v>
@@ -9407,10 +9407,10 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M20" t="n">
-        <v>584.3675935406823</v>
+        <v>584.3675935406818</v>
       </c>
       <c r="N20" t="n">
-        <v>568.5510017355803</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O20" t="n">
         <v>495.0402356415689</v>
@@ -9477,7 +9477,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>77.22098350703547</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
         <v>343.8048081163522</v>
@@ -9486,19 +9486,19 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
-        <v>605.4165828749999</v>
+        <v>162.1044302011579</v>
       </c>
       <c r="N21" t="n">
         <v>623.1450866466196</v>
       </c>
       <c r="O21" t="n">
-        <v>349.6765654061838</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P21" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>78.83013347182219</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9647,7 +9647,7 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N23" t="n">
-        <v>568.5510017355803</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O23" t="n">
         <v>495.0402356415689</v>
@@ -9726,10 +9726,10 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>623.1450866466196</v>
+        <v>179.8329339727773</v>
       </c>
       <c r="O24" t="n">
-        <v>68.70886238590634</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P24" t="n">
         <v>414.0015992319183</v>
@@ -9963,7 +9963,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>179.8329339727773</v>
+        <v>179.8329339727771</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
@@ -10188,10 +10188,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>77.22098350703547</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K30" t="n">
-        <v>67.8407431291966</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L30" t="n">
         <v>482.0924488944969</v>
@@ -10200,7 +10200,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>623.1450866466196</v>
+        <v>179.8329339727773</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10209,7 +10209,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
-        <v>192.4497488054133</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10425,7 +10425,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>163.9183459425315</v>
+        <v>77.22098350703547</v>
       </c>
       <c r="K33" t="n">
         <v>343.8048081163522</v>
@@ -10437,7 +10437,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>179.8329339727771</v>
+        <v>266.5302964082732</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>219.8255997236965</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K35" t="n">
         <v>421.3890363425141</v>
@@ -10604,7 +10604,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q35" t="n">
-        <v>276.0094878578761</v>
+        <v>276.0094878578772</v>
       </c>
       <c r="R35" t="n">
         <v>85.43134583487716</v>
@@ -10665,7 +10665,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
-        <v>94.76299602729173</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L36" t="n">
         <v>482.0924488944969</v>
@@ -10680,7 +10680,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
-        <v>414.0015992319183</v>
+        <v>164.9597871428581</v>
       </c>
       <c r="Q36" t="n">
         <v>78.83013347182219</v>
@@ -10841,7 +10841,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q38" t="n">
-        <v>276.0094878578767</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R38" t="n">
         <v>85.43134583487716</v>
@@ -10899,10 +10899,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>77.22098350703547</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
-        <v>67.8407431291966</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L39" t="n">
         <v>482.0924488944969</v>
@@ -10914,13 +10914,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O39" t="n">
-        <v>512.0210150597484</v>
+        <v>68.70886238590634</v>
       </c>
       <c r="P39" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>192.4497488054137</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11078,7 +11078,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q41" t="n">
-        <v>276.0094878578761</v>
+        <v>276.0094878578758</v>
       </c>
       <c r="R41" t="n">
         <v>85.43134583487716</v>
@@ -11136,7 +11136,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>77.22098350703547</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
         <v>343.8048081163522</v>
@@ -11151,13 +11151,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O42" t="n">
-        <v>512.0210150597484</v>
+        <v>68.70886238590634</v>
       </c>
       <c r="P42" t="n">
-        <v>251.6571495783539</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>78.83013347182219</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11315,7 +11315,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q44" t="n">
-        <v>276.0094878578767</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R44" t="n">
         <v>85.43134583487716</v>
@@ -11373,13 +11373,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>77.22098350703547</v>
+        <v>149.4956280174387</v>
       </c>
       <c r="K45" t="n">
-        <v>67.8407431291966</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L45" t="n">
-        <v>401.4417236433064</v>
+        <v>53.20301414574767</v>
       </c>
       <c r="M45" t="n">
         <v>605.4165828749999</v>
@@ -23258,22 +23258,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>275.0530950968105</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>172.2697288845242</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>244.2521663445628</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>308.3705529686213</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>221.1977633053443</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.64940377992913</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>255.8482548572647</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23495,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>275.0530950968104</v>
       </c>
       <c r="D14" t="n">
-        <v>266.0343991413384</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>21.38967324061653</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>48.32476223499849</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23552,16 +23552,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>230.5481553793078</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>255.8482548572647</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>275.1485130900113</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>175.2941121967073</v>
       </c>
     </row>
     <row r="15">
@@ -24695,7 +24695,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -25637,16 +25637,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>90.94820956649707</v>
+        <v>155.185096765551</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>288.2213167648245</v>
       </c>
       <c r="H41" t="n">
-        <v>201.0485271015473</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>28.17552603120172</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,13 +25676,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>50.50016757613217</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>129.0850353173969</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25871,19 +25871,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>155.1850967655505</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>288.2213167648245</v>
       </c>
       <c r="H44" t="n">
-        <v>201.0485271015473</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>28.17552603120156</v>
+        <v>28.17552603120173</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.95896725331358</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25922,7 +25922,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>210.3989191755109</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>721761.7171003481</v>
+        <v>721761.717100348</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>771038.6054334958</v>
+        <v>771038.6054334957</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>771038.6054334958</v>
+        <v>771038.6054334957</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>771038.6054334957</v>
+        <v>771038.6054334958</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>741008.2675222149</v>
+        <v>741008.2675222146</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>741008.2675222149</v>
+        <v>741008.2675222147</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>727582.7999319391</v>
+      </c>
+      <c r="C2" t="n">
         <v>727582.7999319393</v>
       </c>
-      <c r="C2" t="n">
-        <v>727582.7999319391</v>
-      </c>
       <c r="D2" t="n">
-        <v>729096.6637510692</v>
+        <v>729096.6637510693</v>
       </c>
       <c r="E2" t="n">
-        <v>670726.5525738607</v>
+        <v>670726.5525738609</v>
       </c>
       <c r="F2" t="n">
         <v>670726.5525738609</v>
       </c>
       <c r="G2" t="n">
+        <v>729242.857469472</v>
+      </c>
+      <c r="H2" t="n">
+        <v>729242.8574694718</v>
+      </c>
+      <c r="I2" t="n">
+        <v>729242.8574694721</v>
+      </c>
+      <c r="J2" t="n">
+        <v>729242.857469474</v>
+      </c>
+      <c r="K2" t="n">
+        <v>729242.8574694742</v>
+      </c>
+      <c r="L2" t="n">
+        <v>729242.8574694723</v>
+      </c>
+      <c r="M2" t="n">
         <v>729242.8574694719</v>
       </c>
-      <c r="H2" t="n">
-        <v>729242.857469472</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="N2" t="n">
         <v>729242.8574694719</v>
       </c>
-      <c r="J2" t="n">
-        <v>729242.8574694742</v>
-      </c>
-      <c r="K2" t="n">
-        <v>729242.8574694741</v>
-      </c>
-      <c r="L2" t="n">
-        <v>729242.8574694727</v>
-      </c>
-      <c r="M2" t="n">
-        <v>729242.8574694718</v>
-      </c>
-      <c r="N2" t="n">
-        <v>729242.8574694716</v>
-      </c>
       <c r="O2" t="n">
+        <v>693581.8311998278</v>
+      </c>
+      <c r="P2" t="n">
         <v>693581.8311998277</v>
-      </c>
-      <c r="P2" t="n">
-        <v>693581.8311998278</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>3109.306520341968</v>
       </c>
       <c r="E3" t="n">
-        <v>382533.7787757919</v>
+        <v>382533.7787757918</v>
       </c>
       <c r="F3" t="n">
-        <v>1.13686837721616e-11</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>41456.89830763031</v>
+        <v>41456.89830763023</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>93163.23193775935</v>
+        <v>93163.23193775947</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>43528.66158340623</v>
+        <v>43528.66158340633</v>
       </c>
       <c r="M3" t="n">
-        <v>157404.9346255559</v>
+        <v>157404.9346255558</v>
       </c>
       <c r="N3" t="n">
-        <v>6.821210263296962e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>15654.65313474513</v>
+        <v>15654.65313474511</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26442,22 +26442,22 @@
         <v>300172.5983644138</v>
       </c>
       <c r="K4" t="n">
-        <v>300172.5983644138</v>
+        <v>300172.5983644137</v>
       </c>
       <c r="L4" t="n">
-        <v>300118.985486749</v>
+        <v>300118.9854867491</v>
       </c>
       <c r="M4" t="n">
         <v>299129.2578311103</v>
       </c>
       <c r="N4" t="n">
-        <v>299129.2578311104</v>
+        <v>299129.2578311103</v>
       </c>
       <c r="O4" t="n">
-        <v>277837.5795302973</v>
+        <v>277837.5795302972</v>
       </c>
       <c r="P4" t="n">
-        <v>277837.5795302973</v>
+        <v>277837.5795302972</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26476,40 @@
         <v>34236.18847000223</v>
       </c>
       <c r="E5" t="n">
-        <v>52353.09787678161</v>
+        <v>52353.0978767816</v>
       </c>
       <c r="F5" t="n">
-        <v>52353.09787678161</v>
+        <v>52353.0978767816</v>
       </c>
       <c r="G5" t="n">
+        <v>56709.6478565618</v>
+      </c>
+      <c r="H5" t="n">
+        <v>56709.6478565618</v>
+      </c>
+      <c r="I5" t="n">
         <v>56709.64785656182</v>
       </c>
-      <c r="H5" t="n">
-        <v>56709.64785656183</v>
-      </c>
-      <c r="I5" t="n">
-        <v>56709.64785656183</v>
-      </c>
       <c r="J5" t="n">
-        <v>64476.44495552993</v>
+        <v>64476.44495552994</v>
       </c>
       <c r="K5" t="n">
-        <v>64476.44495552994</v>
+        <v>64476.44495552992</v>
       </c>
       <c r="L5" t="n">
-        <v>64085.57031906671</v>
+        <v>64085.57031906672</v>
       </c>
       <c r="M5" t="n">
         <v>56709.64785656182</v>
       </c>
       <c r="N5" t="n">
-        <v>56709.64785656182</v>
+        <v>56709.6478565618</v>
       </c>
       <c r="O5" t="n">
-        <v>54047.02401519861</v>
+        <v>54047.02401519859</v>
       </c>
       <c r="P5" t="n">
-        <v>54047.02401519861</v>
+        <v>54047.02401519859</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>296885.0425282233</v>
+        <v>296880.6739557559</v>
       </c>
       <c r="C6" t="n">
-        <v>296885.0425282231</v>
+        <v>296880.6739557561</v>
       </c>
       <c r="D6" t="n">
-        <v>294974.5569495051</v>
+        <v>294974.1722291937</v>
       </c>
       <c r="E6" t="n">
-        <v>-28367.7903398839</v>
+        <v>-28521.78061592474</v>
       </c>
       <c r="F6" t="n">
-        <v>354165.988435908</v>
+        <v>354011.9981598669</v>
       </c>
       <c r="G6" t="n">
-        <v>331947.0534741694</v>
+        <v>331947.0534741697</v>
       </c>
       <c r="H6" t="n">
+        <v>373403.9517817997</v>
+      </c>
+      <c r="I6" t="n">
+        <v>373403.9517818</v>
+      </c>
+      <c r="J6" t="n">
+        <v>271430.5822117708</v>
+      </c>
+      <c r="K6" t="n">
+        <v>364593.8141495305</v>
+      </c>
+      <c r="L6" t="n">
+        <v>321509.6400802502</v>
+      </c>
+      <c r="M6" t="n">
+        <v>215999.017156244</v>
+      </c>
+      <c r="N6" t="n">
         <v>373403.9517817998</v>
       </c>
-      <c r="I6" t="n">
-        <v>373403.9517817997</v>
-      </c>
-      <c r="J6" t="n">
-        <v>271430.5822117711</v>
-      </c>
-      <c r="K6" t="n">
-        <v>364593.8141495303</v>
-      </c>
-      <c r="L6" t="n">
-        <v>321509.6400802507</v>
-      </c>
-      <c r="M6" t="n">
-        <v>215999.0171562438</v>
-      </c>
-      <c r="N6" t="n">
-        <v>373403.9517817993</v>
-      </c>
       <c r="O6" t="n">
-        <v>346042.5745195867</v>
+        <v>345948.7297136142</v>
       </c>
       <c r="P6" t="n">
-        <v>361697.2276543319</v>
+        <v>361603.3828483592</v>
       </c>
     </row>
   </sheetData>
@@ -26695,7 +26695,7 @@
         <v>103.0613259837102</v>
       </c>
       <c r="F2" t="n">
-        <v>103.0613259837102</v>
+        <v>103.0613259837103</v>
       </c>
       <c r="G2" t="n">
         <v>154.8824488682481</v>
@@ -26704,7 +26704,7 @@
         <v>154.8824488682481</v>
       </c>
       <c r="I2" t="n">
-        <v>154.8824488682481</v>
+        <v>154.882448868248</v>
       </c>
       <c r="J2" t="n">
         <v>103.0613259837102</v>
@@ -26713,7 +26713,7 @@
         <v>103.0613259837102</v>
       </c>
       <c r="L2" t="n">
-        <v>105.6510300784302</v>
+        <v>105.6510300784303</v>
       </c>
       <c r="M2" t="n">
         <v>154.882448868248</v>
@@ -26722,10 +26722,10 @@
         <v>154.8824488682481</v>
       </c>
       <c r="O2" t="n">
-        <v>123.2105621875072</v>
+        <v>123.2105621875071</v>
       </c>
       <c r="P2" t="n">
-        <v>123.2105621875072</v>
+        <v>123.2105621875071</v>
       </c>
     </row>
     <row r="3">
@@ -26796,40 +26796,40 @@
         <v>10.00967878293136</v>
       </c>
       <c r="E4" t="n">
+        <v>672.9842556007179</v>
+      </c>
+      <c r="F4" t="n">
+        <v>672.9842556007178</v>
+      </c>
+      <c r="G4" t="n">
+        <v>672.9842556007178</v>
+      </c>
+      <c r="H4" t="n">
+        <v>672.9842556007178</v>
+      </c>
+      <c r="I4" t="n">
+        <v>672.984255600718</v>
+      </c>
+      <c r="J4" t="n">
+        <v>872.3814115011841</v>
+      </c>
+      <c r="K4" t="n">
+        <v>872.3814115011839</v>
+      </c>
+      <c r="L4" t="n">
+        <v>862.3717327182526</v>
+      </c>
+      <c r="M4" t="n">
         <v>672.9842556007181</v>
       </c>
-      <c r="F4" t="n">
-        <v>672.9842556007181</v>
-      </c>
-      <c r="G4" t="n">
-        <v>672.984255600718</v>
-      </c>
-      <c r="H4" t="n">
-        <v>672.9842556007181</v>
-      </c>
-      <c r="I4" t="n">
-        <v>672.9842556007181</v>
-      </c>
-      <c r="J4" t="n">
-        <v>872.3814115011839</v>
-      </c>
-      <c r="K4" t="n">
-        <v>872.3814115011841</v>
-      </c>
-      <c r="L4" t="n">
-        <v>862.3717327182527</v>
-      </c>
-      <c r="M4" t="n">
-        <v>672.984255600718</v>
-      </c>
       <c r="N4" t="n">
-        <v>672.984255600718</v>
+        <v>672.9842556007178</v>
       </c>
       <c r="O4" t="n">
-        <v>672.984255600718</v>
+        <v>672.9842556007178</v>
       </c>
       <c r="P4" t="n">
-        <v>672.984255600718</v>
+        <v>672.9842556007178</v>
       </c>
     </row>
   </sheetData>
@@ -26917,10 +26917,10 @@
         <v>103.0613259837102</v>
       </c>
       <c r="F2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>51.82112288453789</v>
+        <v>51.82112288453779</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>51.24020309917235</v>
+        <v>51.24020309917242</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54.41082697925779</v>
+        <v>54.41082697925791</v>
       </c>
       <c r="M2" t="n">
-        <v>49.23141878981789</v>
+        <v>49.23141878981775</v>
       </c>
       <c r="N2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>19.56831641843141</v>
+        <v>19.56831641843139</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>10.00967878293136</v>
       </c>
       <c r="E4" t="n">
-        <v>662.9745768177868</v>
+        <v>662.9745768177866</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>199.3971559004658</v>
+        <v>199.397155900466</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>103.0613259837102</v>
       </c>
       <c r="K2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>51.82112288453789</v>
+        <v>51.82112288453779</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>51.24020309917235</v>
+        <v>51.24020309917242</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>10.00967878293136</v>
       </c>
       <c r="M4" t="n">
-        <v>662.9745768177868</v>
+        <v>662.9745768177866</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>79.72222485617382</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>176.5401605439436</v>
+        <v>175.3470068330182</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>213.298831734293</v>
       </c>
       <c r="U8" t="n">
         <v>252.3364829231459</v>
@@ -27932,7 +27932,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C9" t="n">
-        <v>160.0866360314548</v>
+        <v>151.2701109594489</v>
       </c>
       <c r="D9" t="n">
         <v>137.45025063969</v>
@@ -27941,7 +27941,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696244</v>
+        <v>123.337181286693</v>
       </c>
       <c r="G9" t="n">
         <v>127.4412149769483</v>
@@ -27977,16 +27977,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.17674743307231</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>141.2618133344558</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
         <v>176.7885740127433</v>
       </c>
       <c r="U9" t="n">
-        <v>207.493319405667</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V9" t="n">
         <v>226.1116663261494</v>
@@ -27995,7 +27995,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X9" t="n">
-        <v>195.9378182409833</v>
+        <v>185.928139458052</v>
       </c>
       <c r="Y9" t="n">
         <v>190.5961130869169</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>172.9032899255301</v>
+        <v>171.7101362146047</v>
       </c>
       <c r="C10" t="n">
         <v>167.9198098429365</v>
@@ -28023,13 +28023,13 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
-        <v>157.2208723628971</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
-        <v>147.7692399855875</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
-        <v>132.7513351704169</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
         <v>59.456666199969</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.15196793284785</v>
+        <v>28.14228914991649</v>
       </c>
       <c r="R10" t="n">
         <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
-        <v>211.5726649703493</v>
+        <v>202.7561398983434</v>
       </c>
       <c r="T10" t="n">
         <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
-        <v>284.3183371157911</v>
+        <v>274.3086583328597</v>
       </c>
       <c r="V10" t="n">
         <v>258.1279513971616</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>103.0613259837102</v>
+        <v>103.0613259837103</v>
       </c>
       <c r="C14" t="n">
-        <v>103.0613259837102</v>
+        <v>103.0613259837103</v>
       </c>
       <c r="D14" t="n">
-        <v>103.0613259837102</v>
+        <v>103.0613259837103</v>
       </c>
       <c r="E14" t="n">
-        <v>103.0613259837102</v>
+        <v>103.0613259837103</v>
       </c>
       <c r="F14" t="n">
-        <v>103.0613259837102</v>
+        <v>103.0613259837103</v>
       </c>
       <c r="G14" t="n">
-        <v>103.0613259837102</v>
+        <v>103.0613259837103</v>
       </c>
       <c r="H14" t="n">
-        <v>103.0613259837102</v>
+        <v>103.0613259837103</v>
       </c>
       <c r="I14" t="n">
-        <v>103.0613259837102</v>
+        <v>103.0613259837103</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>57.62854546871876</v>
       </c>
       <c r="S14" t="n">
-        <v>103.0613259837102</v>
+        <v>103.0613259837103</v>
       </c>
       <c r="T14" t="n">
-        <v>103.0613259837102</v>
+        <v>103.0613259837103</v>
       </c>
       <c r="U14" t="n">
-        <v>103.0613259837102</v>
+        <v>103.0613259837103</v>
       </c>
       <c r="V14" t="n">
-        <v>103.0613259837102</v>
+        <v>103.0613259837103</v>
       </c>
       <c r="W14" t="n">
-        <v>103.0613259837102</v>
+        <v>103.0613259837103</v>
       </c>
       <c r="X14" t="n">
-        <v>103.0613259837102</v>
+        <v>103.0613259837103</v>
       </c>
       <c r="Y14" t="n">
-        <v>103.0613259837102</v>
+        <v>103.0613259837103</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>103.0613259837102</v>
+        <v>103.0613259837103</v>
       </c>
       <c r="C16" t="n">
-        <v>103.0613259837102</v>
+        <v>103.0613259837103</v>
       </c>
       <c r="D16" t="n">
-        <v>103.0613259837102</v>
+        <v>103.0613259837103</v>
       </c>
       <c r="E16" t="n">
-        <v>103.0613259837102</v>
+        <v>103.0613259837103</v>
       </c>
       <c r="F16" t="n">
-        <v>103.0613259837102</v>
+        <v>103.0613259837103</v>
       </c>
       <c r="G16" t="n">
-        <v>103.0613259837102</v>
+        <v>103.0613259837103</v>
       </c>
       <c r="H16" t="n">
-        <v>103.0613259837102</v>
+        <v>103.0613259837103</v>
       </c>
       <c r="I16" t="n">
-        <v>103.0613259837102</v>
+        <v>103.0613259837103</v>
       </c>
       <c r="J16" t="n">
-        <v>103.0613259837102</v>
+        <v>103.0613259837103</v>
       </c>
       <c r="K16" t="n">
-        <v>103.0613259837102</v>
+        <v>103.0613259837103</v>
       </c>
       <c r="L16" t="n">
-        <v>103.0613259837102</v>
+        <v>103.0613259837103</v>
       </c>
       <c r="M16" t="n">
-        <v>103.0613259837102</v>
+        <v>103.0613259837103</v>
       </c>
       <c r="N16" t="n">
-        <v>103.0613259837102</v>
+        <v>103.0613259837103</v>
       </c>
       <c r="O16" t="n">
-        <v>103.0613259837102</v>
+        <v>103.0613259837103</v>
       </c>
       <c r="P16" t="n">
-        <v>103.0613259837102</v>
+        <v>103.0613259837103</v>
       </c>
       <c r="Q16" t="n">
-        <v>103.0613259837102</v>
+        <v>103.0613259837103</v>
       </c>
       <c r="R16" t="n">
-        <v>103.0613259837102</v>
+        <v>103.0613259837103</v>
       </c>
       <c r="S16" t="n">
-        <v>103.0613259837102</v>
+        <v>103.0613259837103</v>
       </c>
       <c r="T16" t="n">
-        <v>103.0613259837102</v>
+        <v>103.0613259837103</v>
       </c>
       <c r="U16" t="n">
-        <v>103.0613259837102</v>
+        <v>103.0613259837103</v>
       </c>
       <c r="V16" t="n">
-        <v>103.0613259837102</v>
+        <v>103.0613259837103</v>
       </c>
       <c r="W16" t="n">
-        <v>103.0613259837102</v>
+        <v>103.0613259837103</v>
       </c>
       <c r="X16" t="n">
-        <v>103.0613259837102</v>
+        <v>103.0613259837103</v>
       </c>
       <c r="Y16" t="n">
-        <v>103.0613259837102</v>
+        <v>103.0613259837103</v>
       </c>
     </row>
     <row r="17">
@@ -28770,7 +28770,7 @@
         <v>137.7187673509264</v>
       </c>
       <c r="S19" t="n">
-        <v>154.8824488682481</v>
+        <v>120.7017064767764</v>
       </c>
       <c r="T19" t="n">
         <v>154.8824488682481</v>
@@ -28788,7 +28788,7 @@
         <v>154.8824488682481</v>
       </c>
       <c r="Y19" t="n">
-        <v>120.7017064767758</v>
+        <v>154.8824488682481</v>
       </c>
     </row>
     <row r="20">
@@ -29007,7 +29007,7 @@
         <v>137.7187673509264</v>
       </c>
       <c r="S22" t="n">
-        <v>154.8824488682481</v>
+        <v>120.7017064767764</v>
       </c>
       <c r="T22" t="n">
         <v>154.8824488682481</v>
@@ -29025,7 +29025,7 @@
         <v>154.8824488682481</v>
       </c>
       <c r="Y22" t="n">
-        <v>120.7017064767758</v>
+        <v>154.8824488682481</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>154.8824488682481</v>
+        <v>154.882448868248</v>
       </c>
       <c r="C23" t="n">
-        <v>154.8824488682481</v>
+        <v>154.882448868248</v>
       </c>
       <c r="D23" t="n">
-        <v>154.8824488682481</v>
+        <v>154.882448868248</v>
       </c>
       <c r="E23" t="n">
-        <v>154.8824488682481</v>
+        <v>154.882448868248</v>
       </c>
       <c r="F23" t="n">
-        <v>154.8824488682481</v>
+        <v>154.882448868248</v>
       </c>
       <c r="G23" t="n">
-        <v>154.8824488682481</v>
+        <v>154.882448868248</v>
       </c>
       <c r="H23" t="n">
-        <v>154.8824488682481</v>
+        <v>154.882448868248</v>
       </c>
       <c r="I23" t="n">
         <v>151.3860882187088</v>
@@ -29086,25 +29086,25 @@
         <v>57.62854546871876</v>
       </c>
       <c r="S23" t="n">
-        <v>154.8824488682481</v>
+        <v>154.882448868248</v>
       </c>
       <c r="T23" t="n">
-        <v>154.8824488682481</v>
+        <v>154.882448868248</v>
       </c>
       <c r="U23" t="n">
-        <v>154.8824488682481</v>
+        <v>154.882448868248</v>
       </c>
       <c r="V23" t="n">
-        <v>154.8824488682481</v>
+        <v>154.882448868248</v>
       </c>
       <c r="W23" t="n">
-        <v>154.8824488682481</v>
+        <v>154.882448868248</v>
       </c>
       <c r="X23" t="n">
-        <v>154.8824488682481</v>
+        <v>154.882448868248</v>
       </c>
       <c r="Y23" t="n">
-        <v>154.8824488682481</v>
+        <v>154.882448868248</v>
       </c>
     </row>
     <row r="24">
@@ -29193,10 +29193,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>154.8824488682481</v>
+        <v>154.882448868248</v>
       </c>
       <c r="C25" t="n">
-        <v>154.8824488682481</v>
+        <v>154.882448868248</v>
       </c>
       <c r="D25" t="n">
         <v>151.5411742405149</v>
@@ -29208,10 +29208,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>154.8824488682481</v>
+        <v>154.882448868248</v>
       </c>
       <c r="H25" t="n">
-        <v>154.8824488682481</v>
+        <v>154.882448868248</v>
       </c>
       <c r="I25" t="n">
         <v>135.8669197563131</v>
@@ -29244,25 +29244,25 @@
         <v>137.7187673509264</v>
       </c>
       <c r="S25" t="n">
-        <v>120.7017064767758</v>
+        <v>154.882448868248</v>
       </c>
       <c r="T25" t="n">
-        <v>154.8824488682481</v>
+        <v>154.882448868248</v>
       </c>
       <c r="U25" t="n">
-        <v>154.8824488682481</v>
+        <v>154.882448868248</v>
       </c>
       <c r="V25" t="n">
-        <v>154.8824488682481</v>
+        <v>154.882448868248</v>
       </c>
       <c r="W25" t="n">
-        <v>154.8824488682481</v>
+        <v>120.7017064767766</v>
       </c>
       <c r="X25" t="n">
-        <v>154.8824488682481</v>
+        <v>154.882448868248</v>
       </c>
       <c r="Y25" t="n">
-        <v>154.8824488682481</v>
+        <v>154.882448868248</v>
       </c>
     </row>
     <row r="26">
@@ -29296,7 +29296,7 @@
         <v>103.0613259837102</v>
       </c>
       <c r="J26" t="n">
-        <v>103.0613259837102</v>
+        <v>22.67011045744889</v>
       </c>
       <c r="K26" t="n">
         <v>103.0613259837102</v>
@@ -29311,7 +29311,7 @@
         <v>103.0613259837102</v>
       </c>
       <c r="O26" t="n">
-        <v>22.67011045744852</v>
+        <v>103.0613259837102</v>
       </c>
       <c r="P26" t="n">
         <v>103.0613259837102</v>
@@ -29542,13 +29542,13 @@
         <v>103.0613259837102</v>
       </c>
       <c r="M29" t="n">
-        <v>103.0613259837102</v>
+        <v>22.6701104574488</v>
       </c>
       <c r="N29" t="n">
         <v>103.0613259837102</v>
       </c>
       <c r="O29" t="n">
-        <v>22.67011045744897</v>
+        <v>103.0613259837102</v>
       </c>
       <c r="P29" t="n">
         <v>103.0613259837102</v>
@@ -29703,7 +29703,7 @@
         <v>103.0613259837102</v>
       </c>
       <c r="N31" t="n">
-        <v>103.0613259837102</v>
+        <v>103.0613259837124</v>
       </c>
       <c r="O31" t="n">
         <v>103.0613259837102</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>105.6510300784302</v>
+        <v>105.6510300784303</v>
       </c>
       <c r="C32" t="n">
-        <v>105.6510300784302</v>
+        <v>105.6510300784303</v>
       </c>
       <c r="D32" t="n">
-        <v>105.6510300784302</v>
+        <v>105.6510300784303</v>
       </c>
       <c r="E32" t="n">
-        <v>105.6510300784302</v>
+        <v>105.6510300784303</v>
       </c>
       <c r="F32" t="n">
-        <v>105.6510300784302</v>
+        <v>105.6510300784303</v>
       </c>
       <c r="G32" t="n">
-        <v>105.6510300784302</v>
+        <v>105.6510300784303</v>
       </c>
       <c r="H32" t="n">
-        <v>105.6510300784302</v>
+        <v>105.6510300784303</v>
       </c>
       <c r="I32" t="n">
-        <v>105.6510300784302</v>
+        <v>105.6510300784303</v>
       </c>
       <c r="J32" t="n">
-        <v>105.6510300784302</v>
+        <v>105.6510300784303</v>
       </c>
       <c r="K32" t="n">
-        <v>105.6510300784302</v>
+        <v>105.6510300784303</v>
       </c>
       <c r="L32" t="n">
-        <v>105.6510300784302</v>
+        <v>105.6510300784303</v>
       </c>
       <c r="M32" t="n">
-        <v>105.6510300784302</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>105.6510300784302</v>
+        <v>105.6510300784303</v>
       </c>
       <c r="O32" t="n">
-        <v>105.6510300784302</v>
+        <v>67.9692241123696</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>105.6510300784303</v>
       </c>
       <c r="Q32" t="n">
-        <v>105.6510300784302</v>
+        <v>105.6510300784303</v>
       </c>
       <c r="R32" t="n">
-        <v>67.96922411237129</v>
+        <v>105.6510300784303</v>
       </c>
       <c r="S32" t="n">
-        <v>105.6510300784302</v>
+        <v>105.6510300784303</v>
       </c>
       <c r="T32" t="n">
-        <v>105.6510300784302</v>
+        <v>105.6510300784303</v>
       </c>
       <c r="U32" t="n">
-        <v>105.6510300784302</v>
+        <v>105.6510300784303</v>
       </c>
       <c r="V32" t="n">
-        <v>105.6510300784302</v>
+        <v>105.6510300784303</v>
       </c>
       <c r="W32" t="n">
-        <v>105.6510300784302</v>
+        <v>105.6510300784303</v>
       </c>
       <c r="X32" t="n">
-        <v>105.6510300784302</v>
+        <v>105.6510300784303</v>
       </c>
       <c r="Y32" t="n">
-        <v>105.6510300784302</v>
+        <v>105.6510300784303</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>105.6510300784302</v>
+        <v>105.6510300784303</v>
       </c>
       <c r="C34" t="n">
-        <v>105.6510300784302</v>
+        <v>105.6510300784303</v>
       </c>
       <c r="D34" t="n">
-        <v>105.6510300784302</v>
+        <v>105.6510300784303</v>
       </c>
       <c r="E34" t="n">
-        <v>105.6510300784302</v>
+        <v>105.6510300784303</v>
       </c>
       <c r="F34" t="n">
-        <v>105.6510300784302</v>
+        <v>105.6510300784303</v>
       </c>
       <c r="G34" t="n">
-        <v>105.6510300784302</v>
+        <v>105.6510300784303</v>
       </c>
       <c r="H34" t="n">
-        <v>105.6510300784302</v>
+        <v>105.6510300784303</v>
       </c>
       <c r="I34" t="n">
-        <v>105.6510300784302</v>
+        <v>105.6510300784303</v>
       </c>
       <c r="J34" t="n">
-        <v>105.6510300784302</v>
+        <v>105.6510300784303</v>
       </c>
       <c r="K34" t="n">
-        <v>105.6510300784302</v>
+        <v>105.6510300784303</v>
       </c>
       <c r="L34" t="n">
-        <v>105.6510300784302</v>
+        <v>105.6510300784303</v>
       </c>
       <c r="M34" t="n">
-        <v>105.6510300784302</v>
+        <v>105.6510300784303</v>
       </c>
       <c r="N34" t="n">
-        <v>105.6510300784302</v>
+        <v>105.6510300784303</v>
       </c>
       <c r="O34" t="n">
-        <v>42.65682807720776</v>
+        <v>42.6568280772043</v>
       </c>
       <c r="P34" t="n">
-        <v>105.6510300784302</v>
+        <v>105.6510300784303</v>
       </c>
       <c r="Q34" t="n">
-        <v>105.6510300784302</v>
+        <v>105.6510300784303</v>
       </c>
       <c r="R34" t="n">
-        <v>105.6510300784302</v>
+        <v>105.6510300784303</v>
       </c>
       <c r="S34" t="n">
-        <v>105.6510300784302</v>
+        <v>105.6510300784303</v>
       </c>
       <c r="T34" t="n">
-        <v>105.6510300784302</v>
+        <v>105.6510300784303</v>
       </c>
       <c r="U34" t="n">
-        <v>105.6510300784302</v>
+        <v>105.6510300784303</v>
       </c>
       <c r="V34" t="n">
-        <v>105.6510300784302</v>
+        <v>105.6510300784303</v>
       </c>
       <c r="W34" t="n">
-        <v>105.6510300784302</v>
+        <v>105.6510300784303</v>
       </c>
       <c r="X34" t="n">
-        <v>105.6510300784302</v>
+        <v>105.6510300784303</v>
       </c>
       <c r="Y34" t="n">
-        <v>105.6510300784302</v>
+        <v>105.6510300784303</v>
       </c>
     </row>
     <row r="35">
@@ -30186,13 +30186,13 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>18.95562523366688</v>
       </c>
       <c r="R37" t="n">
         <v>137.7187673509264</v>
       </c>
       <c r="S37" t="n">
-        <v>139.6573317104436</v>
+        <v>154.882448868248</v>
       </c>
       <c r="T37" t="n">
         <v>154.882448868248</v>
@@ -30210,7 +30210,7 @@
         <v>154.882448868248</v>
       </c>
       <c r="Y37" t="n">
-        <v>154.882448868248</v>
+        <v>120.7017064767766</v>
       </c>
     </row>
     <row r="38">
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>18.95562523366688</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>137.7187673509264</v>
@@ -30432,7 +30432,7 @@
         <v>154.8824488682481</v>
       </c>
       <c r="T40" t="n">
-        <v>120.7017064767759</v>
+        <v>139.6573317104432</v>
       </c>
       <c r="U40" t="n">
         <v>154.8824488682481</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>123.2105621875072</v>
+        <v>123.2105621875071</v>
       </c>
       <c r="C41" t="n">
-        <v>123.2105621875072</v>
+        <v>123.2105621875071</v>
       </c>
       <c r="D41" t="n">
-        <v>123.2105621875072</v>
+        <v>123.2105621875071</v>
       </c>
       <c r="E41" t="n">
-        <v>123.2105621875072</v>
+        <v>123.2105621875071</v>
       </c>
       <c r="F41" t="n">
-        <v>123.2105621875072</v>
+        <v>123.2105621875071</v>
       </c>
       <c r="G41" t="n">
-        <v>123.2105621875072</v>
+        <v>123.2105621875071</v>
       </c>
       <c r="H41" t="n">
-        <v>123.2105621875072</v>
+        <v>123.2105621875071</v>
       </c>
       <c r="I41" t="n">
-        <v>123.2105621875072</v>
+        <v>123.2105621875071</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>57.62854546871876</v>
       </c>
       <c r="S41" t="n">
-        <v>123.2105621875072</v>
+        <v>123.2105621875071</v>
       </c>
       <c r="T41" t="n">
-        <v>123.2105621875072</v>
+        <v>123.2105621875071</v>
       </c>
       <c r="U41" t="n">
-        <v>123.2105621875072</v>
+        <v>123.2105621875071</v>
       </c>
       <c r="V41" t="n">
-        <v>123.2105621875072</v>
+        <v>123.2105621875071</v>
       </c>
       <c r="W41" t="n">
-        <v>123.2105621875072</v>
+        <v>123.2105621875071</v>
       </c>
       <c r="X41" t="n">
-        <v>123.2105621875072</v>
+        <v>123.2105621875071</v>
       </c>
       <c r="Y41" t="n">
-        <v>123.2105621875072</v>
+        <v>123.2105621875071</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>123.2105621875072</v>
+        <v>123.2105621875071</v>
       </c>
       <c r="C43" t="n">
-        <v>123.2105621875072</v>
+        <v>123.2105621875071</v>
       </c>
       <c r="D43" t="n">
-        <v>123.2105621875072</v>
+        <v>123.2105621875071</v>
       </c>
       <c r="E43" t="n">
-        <v>123.2105621875072</v>
+        <v>123.2105621875071</v>
       </c>
       <c r="F43" t="n">
-        <v>123.2105621875072</v>
+        <v>123.2105621875071</v>
       </c>
       <c r="G43" t="n">
-        <v>123.2105621875072</v>
+        <v>123.2105621875071</v>
       </c>
       <c r="H43" t="n">
-        <v>123.2105621875072</v>
+        <v>123.2105621875071</v>
       </c>
       <c r="I43" t="n">
-        <v>123.2105621875072</v>
+        <v>123.2105621875071</v>
       </c>
       <c r="J43" t="n">
-        <v>123.2105621875072</v>
+        <v>43.24887582199371</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>123.2105621875072</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>123.2105621875071</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>82.67648843920387</v>
       </c>
       <c r="O43" t="n">
-        <v>123.2105621875072</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>2.714802073687395</v>
+        <v>123.2105621875071</v>
       </c>
       <c r="Q43" t="n">
-        <v>123.2105621875072</v>
+        <v>123.2105621875071</v>
       </c>
       <c r="R43" t="n">
-        <v>123.2105621875072</v>
+        <v>123.2105621875071</v>
       </c>
       <c r="S43" t="n">
-        <v>123.2105621875072</v>
+        <v>123.2105621875071</v>
       </c>
       <c r="T43" t="n">
-        <v>123.2105621875072</v>
+        <v>123.2105621875071</v>
       </c>
       <c r="U43" t="n">
-        <v>123.2105621875072</v>
+        <v>123.2105621875071</v>
       </c>
       <c r="V43" t="n">
-        <v>123.2105621875072</v>
+        <v>123.2105621875071</v>
       </c>
       <c r="W43" t="n">
-        <v>123.2105621875072</v>
+        <v>123.2105621875071</v>
       </c>
       <c r="X43" t="n">
-        <v>123.2105621875072</v>
+        <v>123.2105621875071</v>
       </c>
       <c r="Y43" t="n">
-        <v>123.2105621875072</v>
+        <v>123.2105621875071</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>123.2105621875072</v>
+        <v>123.2105621875071</v>
       </c>
       <c r="C44" t="n">
-        <v>123.2105621875072</v>
+        <v>123.2105621875071</v>
       </c>
       <c r="D44" t="n">
-        <v>123.2105621875072</v>
+        <v>123.2105621875071</v>
       </c>
       <c r="E44" t="n">
-        <v>123.2105621875072</v>
+        <v>123.2105621875071</v>
       </c>
       <c r="F44" t="n">
-        <v>123.2105621875072</v>
+        <v>123.2105621875071</v>
       </c>
       <c r="G44" t="n">
-        <v>123.2105621875072</v>
+        <v>123.2105621875071</v>
       </c>
       <c r="H44" t="n">
-        <v>123.2105621875072</v>
+        <v>123.2105621875071</v>
       </c>
       <c r="I44" t="n">
-        <v>123.2105621875072</v>
+        <v>123.2105621875071</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>57.62854546871876</v>
       </c>
       <c r="S44" t="n">
-        <v>123.2105621875072</v>
+        <v>123.2105621875071</v>
       </c>
       <c r="T44" t="n">
-        <v>123.2105621875072</v>
+        <v>123.2105621875071</v>
       </c>
       <c r="U44" t="n">
-        <v>123.2105621875072</v>
+        <v>123.2105621875071</v>
       </c>
       <c r="V44" t="n">
-        <v>123.2105621875072</v>
+        <v>123.2105621875071</v>
       </c>
       <c r="W44" t="n">
-        <v>123.2105621875072</v>
+        <v>123.2105621875071</v>
       </c>
       <c r="X44" t="n">
-        <v>123.2105621875072</v>
+        <v>123.2105621875071</v>
       </c>
       <c r="Y44" t="n">
-        <v>123.2105621875072</v>
+        <v>123.2105621875071</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>123.2105621875072</v>
+        <v>123.2105621875071</v>
       </c>
       <c r="C46" t="n">
-        <v>123.2105621875072</v>
+        <v>123.2105621875071</v>
       </c>
       <c r="D46" t="n">
-        <v>123.2105621875072</v>
+        <v>123.2105621875071</v>
       </c>
       <c r="E46" t="n">
-        <v>123.2105621875072</v>
+        <v>123.2105621875071</v>
       </c>
       <c r="F46" t="n">
-        <v>123.2105621875072</v>
+        <v>123.2105621875071</v>
       </c>
       <c r="G46" t="n">
-        <v>123.2105621875072</v>
+        <v>123.2105621875071</v>
       </c>
       <c r="H46" t="n">
-        <v>123.2105621875072</v>
+        <v>123.2105621875071</v>
       </c>
       <c r="I46" t="n">
-        <v>123.2105621875072</v>
+        <v>123.2105621875071</v>
       </c>
       <c r="J46" t="n">
         <v>43.24887582199371</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>123.2105621875071</v>
       </c>
       <c r="L46" t="n">
-        <v>63.72086320553396</v>
+        <v>82.67648843920381</v>
       </c>
       <c r="M46" t="n">
-        <v>123.2105621875072</v>
+        <v>123.2105621875071</v>
       </c>
       <c r="N46" t="n">
-        <v>123.2105621875072</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>123.2105621875072</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>18.95562523366688</v>
+        <v>123.2105621875071</v>
       </c>
       <c r="R46" t="n">
-        <v>123.2105621875072</v>
+        <v>123.2105621875071</v>
       </c>
       <c r="S46" t="n">
-        <v>123.2105621875072</v>
+        <v>123.2105621875071</v>
       </c>
       <c r="T46" t="n">
-        <v>123.2105621875072</v>
+        <v>123.2105621875071</v>
       </c>
       <c r="U46" t="n">
-        <v>123.2105621875072</v>
+        <v>123.2105621875071</v>
       </c>
       <c r="V46" t="n">
-        <v>123.2105621875072</v>
+        <v>123.2105621875071</v>
       </c>
       <c r="W46" t="n">
-        <v>123.2105621875072</v>
+        <v>123.2105621875071</v>
       </c>
       <c r="X46" t="n">
-        <v>123.2105621875072</v>
+        <v>123.2105621875071</v>
       </c>
       <c r="Y46" t="n">
-        <v>123.2105621875072</v>
+        <v>123.2105621875071</v>
       </c>
     </row>
   </sheetData>
@@ -31750,10 +31750,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5110677280223892</v>
+        <v>0.5110677280223893</v>
       </c>
       <c r="H11" t="n">
-        <v>5.233972369609295</v>
+        <v>5.233972369609296</v>
       </c>
       <c r="I11" t="n">
         <v>19.70293858458318</v>
@@ -31768,19 +31768,19 @@
         <v>80.65032048989326</v>
       </c>
       <c r="M11" t="n">
-        <v>89.73902119811142</v>
+        <v>89.73902119811143</v>
       </c>
       <c r="N11" t="n">
         <v>91.19109238035504</v>
       </c>
       <c r="O11" t="n">
-        <v>86.10916265983239</v>
+        <v>86.10916265983241</v>
       </c>
       <c r="P11" t="n">
-        <v>73.49217812427965</v>
+        <v>73.49217812427966</v>
       </c>
       <c r="Q11" t="n">
-        <v>55.18956511447782</v>
+        <v>55.18956511447783</v>
       </c>
       <c r="R11" t="n">
         <v>32.10335817038644</v>
@@ -31792,7 +31792,7 @@
         <v>2.23719897941801</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04088541824179113</v>
+        <v>0.04088541824179114</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,7 +31832,7 @@
         <v>0.2734453414602814</v>
       </c>
       <c r="H12" t="n">
-        <v>2.640906324103244</v>
+        <v>2.640906324103245</v>
       </c>
       <c r="I12" t="n">
         <v>9.414675133610567</v>
@@ -31844,16 +31844,16 @@
         <v>44.15542603747009</v>
       </c>
       <c r="L12" t="n">
-        <v>59.37241942540014</v>
+        <v>59.37241942540015</v>
       </c>
       <c r="M12" t="n">
         <v>69.28481305333533</v>
       </c>
       <c r="N12" t="n">
-        <v>71.11857589146152</v>
+        <v>71.11857589146153</v>
       </c>
       <c r="O12" t="n">
-        <v>65.05960279910475</v>
+        <v>65.05960279910477</v>
       </c>
       <c r="P12" t="n">
         <v>52.21606700218304</v>
@@ -31908,31 +31908,31 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2292473886559448</v>
+        <v>0.2292473886559449</v>
       </c>
       <c r="H13" t="n">
         <v>2.038217691868311</v>
       </c>
       <c r="I13" t="n">
-        <v>6.894094197035143</v>
+        <v>6.894094197035144</v>
       </c>
       <c r="J13" t="n">
         <v>16.2077903779753</v>
       </c>
       <c r="K13" t="n">
-        <v>26.63437842748158</v>
+        <v>26.63437842748159</v>
       </c>
       <c r="L13" t="n">
-        <v>34.0828344916302</v>
+        <v>34.08283449163021</v>
       </c>
       <c r="M13" t="n">
         <v>35.93557020540415</v>
       </c>
       <c r="N13" t="n">
-        <v>35.08110266586838</v>
+        <v>35.08110266586839</v>
       </c>
       <c r="O13" t="n">
-        <v>32.40307635293301</v>
+        <v>32.40307635293302</v>
       </c>
       <c r="P13" t="n">
         <v>27.72642962435172</v>
@@ -31944,13 +31944,13 @@
         <v>10.30779622083912</v>
       </c>
       <c r="S13" t="n">
-        <v>3.995156764122237</v>
+        <v>3.995156764122238</v>
       </c>
       <c r="T13" t="n">
-        <v>0.979511569711764</v>
+        <v>0.9795115697117641</v>
       </c>
       <c r="U13" t="n">
-        <v>0.012504403017597</v>
+        <v>0.01250440301759701</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.511067728022389</v>
+        <v>0.5110677280223893</v>
       </c>
       <c r="H26" t="n">
-        <v>5.233972369609293</v>
+        <v>5.233972369609296</v>
       </c>
       <c r="I26" t="n">
-        <v>19.70293858458317</v>
+        <v>19.70293858458318</v>
       </c>
       <c r="J26" t="n">
-        <v>43.37623458124028</v>
+        <v>43.3762345812403</v>
       </c>
       <c r="K26" t="n">
-        <v>65.00973150842802</v>
+        <v>65.00973150842805</v>
       </c>
       <c r="L26" t="n">
-        <v>80.65032048989322</v>
+        <v>80.65032048989326</v>
       </c>
       <c r="M26" t="n">
-        <v>89.73902119811137</v>
+        <v>89.73902119811143</v>
       </c>
       <c r="N26" t="n">
-        <v>91.191092380355</v>
+        <v>91.19109238035504</v>
       </c>
       <c r="O26" t="n">
-        <v>86.10916265983236</v>
+        <v>86.10916265983241</v>
       </c>
       <c r="P26" t="n">
-        <v>73.49217812427962</v>
+        <v>73.49217812427966</v>
       </c>
       <c r="Q26" t="n">
-        <v>55.18956511447779</v>
+        <v>55.18956511447783</v>
       </c>
       <c r="R26" t="n">
-        <v>32.10335817038642</v>
+        <v>32.10335817038644</v>
       </c>
       <c r="S26" t="n">
-        <v>11.6459558523102</v>
+        <v>11.64595585231021</v>
       </c>
       <c r="T26" t="n">
-        <v>2.237198979418009</v>
+        <v>2.23719897941801</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04088541824179111</v>
+        <v>0.04088541824179114</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2734453414602813</v>
+        <v>0.2734453414602814</v>
       </c>
       <c r="H27" t="n">
-        <v>2.640906324103243</v>
+        <v>2.640906324103245</v>
       </c>
       <c r="I27" t="n">
-        <v>9.414675133610562</v>
+        <v>9.414675133610567</v>
       </c>
       <c r="J27" t="n">
-        <v>25.83458815963123</v>
+        <v>25.83458815963124</v>
       </c>
       <c r="K27" t="n">
-        <v>44.15542603747007</v>
+        <v>44.15542603747009</v>
       </c>
       <c r="L27" t="n">
-        <v>59.37241942540011</v>
+        <v>59.37241942540015</v>
       </c>
       <c r="M27" t="n">
-        <v>69.28481305333528</v>
+        <v>69.28481305333533</v>
       </c>
       <c r="N27" t="n">
-        <v>71.11857589146149</v>
+        <v>71.11857589146153</v>
       </c>
       <c r="O27" t="n">
-        <v>65.05960279910472</v>
+        <v>65.05960279910477</v>
       </c>
       <c r="P27" t="n">
-        <v>52.21606700218301</v>
+        <v>52.21606700218304</v>
       </c>
       <c r="Q27" t="n">
-        <v>34.90505797307029</v>
+        <v>34.90505797307031</v>
       </c>
       <c r="R27" t="n">
-        <v>16.97759760399887</v>
+        <v>16.97759760399888</v>
       </c>
       <c r="S27" t="n">
-        <v>5.079127285457414</v>
+        <v>5.079127285457417</v>
       </c>
       <c r="T27" t="n">
-        <v>1.102176617552624</v>
+        <v>1.102176617552625</v>
       </c>
       <c r="U27" t="n">
         <v>0.01798982509607115</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2292473886559447</v>
+        <v>0.2292473886559449</v>
       </c>
       <c r="H28" t="n">
-        <v>2.03821769186831</v>
+        <v>2.038217691868311</v>
       </c>
       <c r="I28" t="n">
-        <v>6.89409419703514</v>
+        <v>6.894094197035144</v>
       </c>
       <c r="J28" t="n">
-        <v>16.20779037797529</v>
+        <v>16.2077903779753</v>
       </c>
       <c r="K28" t="n">
-        <v>26.63437842748157</v>
+        <v>26.63437842748159</v>
       </c>
       <c r="L28" t="n">
-        <v>34.08283449163019</v>
+        <v>34.08283449163021</v>
       </c>
       <c r="M28" t="n">
-        <v>35.93557020540413</v>
+        <v>35.93557020540415</v>
       </c>
       <c r="N28" t="n">
-        <v>35.08110266586836</v>
+        <v>35.08110266586839</v>
       </c>
       <c r="O28" t="n">
-        <v>32.403076352933</v>
+        <v>32.40307635293302</v>
       </c>
       <c r="P28" t="n">
-        <v>27.7264296243517</v>
+        <v>27.72642962435172</v>
       </c>
       <c r="Q28" t="n">
-        <v>19.19634269918097</v>
+        <v>19.19634269918098</v>
       </c>
       <c r="R28" t="n">
-        <v>10.30779622083911</v>
+        <v>10.30779622083912</v>
       </c>
       <c r="S28" t="n">
-        <v>3.995156764122235</v>
+        <v>3.995156764122238</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9795115697117636</v>
+        <v>0.9795115697117641</v>
       </c>
       <c r="U28" t="n">
-        <v>0.012504403017597</v>
+        <v>0.01250440301759701</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -35173,13 +35173,13 @@
         <v>10.00967878293136</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>9.605247316954339</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -35188,10 +35188,10 @@
         <v>10.00967878293136</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>9.605247316954333</v>
       </c>
       <c r="Q8" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35255,22 +35255,22 @@
         <v>10.00967878293136</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="M9" t="n">
-        <v>9.605247316954337</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>9.605247316954333</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35334,19 +35334,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
+        <v>10.00967878293136</v>
+      </c>
+      <c r="M10" t="n">
         <v>9.605247316954339</v>
       </c>
-      <c r="M10" t="n">
-        <v>10.00967878293136</v>
-      </c>
       <c r="N10" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.1020368770036</v>
+        <v>116.1020368770033</v>
       </c>
       <c r="K11" t="n">
         <v>307.5757638768955</v>
@@ -35428,7 +35428,7 @@
         <v>303.9536896960506</v>
       </c>
       <c r="Q11" t="n">
-        <v>150.5756799493647</v>
+        <v>150.5756799493637</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>86.69736243549603</v>
       </c>
       <c r="K12" t="n">
-        <v>275.9640649871556</v>
+        <v>190.015372523271</v>
       </c>
       <c r="L12" t="n">
         <v>428.8894347487493</v>
@@ -35498,13 +35498,13 @@
         <v>559.2174933666954</v>
       </c>
       <c r="N12" t="n">
-        <v>230.9337312320264</v>
+        <v>587.5485214703727</v>
       </c>
       <c r="O12" t="n">
         <v>461.221169247742</v>
       </c>
       <c r="P12" t="n">
-        <v>357.363460209958</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>194.2703405847816</v>
@@ -35580,13 +35580,13 @@
         <v>257.760955669377</v>
       </c>
       <c r="O13" t="n">
-        <v>234.9226311201681</v>
+        <v>234.9226311201682</v>
       </c>
       <c r="P13" t="n">
         <v>194.3922846263829</v>
       </c>
       <c r="Q13" t="n">
-        <v>84.10570075004335</v>
+        <v>84.10570075004337</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.1020368770046</v>
+        <v>116.1020368770036</v>
       </c>
       <c r="K14" t="n">
         <v>307.5757638768955</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>86.69736243549602</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>275.9640649871556</v>
@@ -35732,10 +35732,10 @@
         <v>428.8894347487492</v>
       </c>
       <c r="M15" t="n">
-        <v>559.2174933666953</v>
+        <v>202.6027031283492</v>
       </c>
       <c r="N15" t="n">
-        <v>144.2363687965305</v>
+        <v>587.5485214703726</v>
       </c>
       <c r="O15" t="n">
         <v>461.221169247742</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.81245016171654</v>
+        <v>59.81245016171658</v>
       </c>
       <c r="K16" t="n">
-        <v>163.6393283956801</v>
+        <v>163.6393283956802</v>
       </c>
       <c r="L16" t="n">
         <v>238.7674730008551</v>
@@ -35814,7 +35814,7 @@
         <v>258.1822559139646</v>
       </c>
       <c r="N16" t="n">
-        <v>257.7609556693769</v>
+        <v>257.760955669377</v>
       </c>
       <c r="O16" t="n">
         <v>234.9226311201682</v>
@@ -35823,7 +35823,7 @@
         <v>194.392284626383</v>
       </c>
       <c r="Q16" t="n">
-        <v>84.10570075004337</v>
+        <v>84.10570075004341</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35893,7 +35893,7 @@
         <v>486.9503002416345</v>
       </c>
       <c r="N17" t="n">
-        <v>473.3439799437042</v>
+        <v>473.3439799437037</v>
       </c>
       <c r="O17" t="n">
         <v>394.1946015212808</v>
@@ -36127,10 +36127,10 @@
         <v>432.0496872423641</v>
       </c>
       <c r="M20" t="n">
-        <v>486.9503002416345</v>
+        <v>486.9503002416341</v>
       </c>
       <c r="N20" t="n">
-        <v>473.3439799437051</v>
+        <v>473.3439799437042</v>
       </c>
       <c r="O20" t="n">
         <v>394.1946015212808</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>86.69736243549602</v>
       </c>
       <c r="K21" t="n">
         <v>275.9640649871556</v>
@@ -36206,19 +36206,19 @@
         <v>428.8894347487492</v>
       </c>
       <c r="M21" t="n">
-        <v>559.2174933666953</v>
+        <v>115.9053406928533</v>
       </c>
       <c r="N21" t="n">
         <v>587.5485214703726</v>
       </c>
       <c r="O21" t="n">
-        <v>298.8767195941775</v>
+        <v>461.221169247742</v>
       </c>
       <c r="P21" t="n">
         <v>357.363460209958</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>194.2703405847816</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36367,7 +36367,7 @@
         <v>486.9503002416345</v>
       </c>
       <c r="N23" t="n">
-        <v>473.3439799437051</v>
+        <v>473.3439799437042</v>
       </c>
       <c r="O23" t="n">
         <v>394.1946015212808</v>
@@ -36446,10 +36446,10 @@
         <v>559.2174933666953</v>
       </c>
       <c r="N24" t="n">
-        <v>587.5485214703726</v>
+        <v>144.2363687965305</v>
       </c>
       <c r="O24" t="n">
-        <v>17.90901657389996</v>
+        <v>461.221169247742</v>
       </c>
       <c r="P24" t="n">
         <v>357.363460209958</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>219.1633628607138</v>
+        <v>138.7721473344525</v>
       </c>
       <c r="K26" t="n">
         <v>410.6370898606057</v>
@@ -36607,7 +36607,7 @@
         <v>576.4053059274145</v>
       </c>
       <c r="O26" t="n">
-        <v>416.8647119787293</v>
+        <v>497.2559275049911</v>
       </c>
       <c r="P26" t="n">
         <v>407.0150156797608</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>86.69736243549602</v>
+        <v>86.69736243549603</v>
       </c>
       <c r="K27" t="n">
         <v>275.9640649871556</v>
       </c>
       <c r="L27" t="n">
-        <v>428.8894347487492</v>
+        <v>428.8894347487493</v>
       </c>
       <c r="M27" t="n">
-        <v>559.2174933666953</v>
+        <v>559.2174933666954</v>
       </c>
       <c r="N27" t="n">
-        <v>144.2363687965305</v>
+        <v>144.2363687965303</v>
       </c>
       <c r="O27" t="n">
         <v>461.221169247742</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.81245016171654</v>
+        <v>59.81245016171653</v>
       </c>
       <c r="K28" t="n">
         <v>163.6393283956801</v>
@@ -36762,13 +36762,13 @@
         <v>258.1822559139646</v>
       </c>
       <c r="N28" t="n">
-        <v>257.7609556693769</v>
+        <v>257.760955669377</v>
       </c>
       <c r="O28" t="n">
         <v>234.9226311201682</v>
       </c>
       <c r="P28" t="n">
-        <v>194.392284626383</v>
+        <v>194.3922846263829</v>
       </c>
       <c r="Q28" t="n">
         <v>84.10570075004337</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>219.1633628607138</v>
+        <v>219.1633628607137</v>
       </c>
       <c r="K29" t="n">
         <v>410.6370898606057</v>
       </c>
       <c r="L29" t="n">
-        <v>535.1110132260744</v>
+        <v>535.1110132260743</v>
       </c>
       <c r="M29" t="n">
-        <v>590.0116262253448</v>
+        <v>509.6204106990833</v>
       </c>
       <c r="N29" t="n">
-        <v>576.4053059274145</v>
+        <v>576.4053059274144</v>
       </c>
       <c r="O29" t="n">
-        <v>416.8647119787298</v>
+        <v>497.255927504991</v>
       </c>
       <c r="P29" t="n">
-        <v>407.0150156797608</v>
+        <v>407.0150156797607</v>
       </c>
       <c r="Q29" t="n">
-        <v>253.6370059330739</v>
+        <v>253.6370059330738</v>
       </c>
       <c r="R29" t="n">
-        <v>45.43278051499149</v>
+        <v>45.43278051499141</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>86.69736243549602</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>275.9640649871556</v>
       </c>
       <c r="L30" t="n">
         <v>428.8894347487492</v>
@@ -36920,7 +36920,7 @@
         <v>559.2174933666953</v>
       </c>
       <c r="N30" t="n">
-        <v>587.5485214703726</v>
+        <v>144.2363687965305</v>
       </c>
       <c r="O30" t="n">
         <v>461.221169247742</v>
@@ -36929,7 +36929,7 @@
         <v>357.363460209958</v>
       </c>
       <c r="Q30" t="n">
-        <v>113.6196153335911</v>
+        <v>194.2703405847816</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.81245016171654</v>
+        <v>59.81245016171647</v>
       </c>
       <c r="K31" t="n">
         <v>163.6393283956801</v>
       </c>
       <c r="L31" t="n">
-        <v>238.7674730008551</v>
+        <v>238.767473000855</v>
       </c>
       <c r="M31" t="n">
-        <v>258.1822559139646</v>
+        <v>258.1822559139645</v>
       </c>
       <c r="N31" t="n">
-        <v>257.7609556693769</v>
+        <v>257.7609556693791</v>
       </c>
       <c r="O31" t="n">
-        <v>234.9226311201682</v>
+        <v>234.9226311201681</v>
       </c>
       <c r="P31" t="n">
-        <v>194.392284626383</v>
+        <v>194.3922846263829</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.10570075004337</v>
+        <v>84.1057007500433</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>221.7530669554337</v>
+        <v>221.7530669554339</v>
       </c>
       <c r="K32" t="n">
-        <v>413.2267939553255</v>
+        <v>413.2267939553258</v>
       </c>
       <c r="L32" t="n">
-        <v>537.7007173207943</v>
+        <v>537.7007173207945</v>
       </c>
       <c r="M32" t="n">
-        <v>592.6013303200647</v>
+        <v>486.9503002416345</v>
       </c>
       <c r="N32" t="n">
-        <v>578.9950100221344</v>
+        <v>578.9950100221346</v>
       </c>
       <c r="O32" t="n">
-        <v>499.8456315997109</v>
+        <v>462.1638256336504</v>
       </c>
       <c r="P32" t="n">
-        <v>303.9536896960506</v>
+        <v>409.6047197744809</v>
       </c>
       <c r="Q32" t="n">
-        <v>256.2267100277938</v>
+        <v>256.226710027794</v>
       </c>
       <c r="R32" t="n">
-        <v>10.34067864365253</v>
+        <v>48.02248460971153</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>86.69736243549602</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>275.9640649871556</v>
@@ -37157,7 +37157,7 @@
         <v>559.2174933666953</v>
       </c>
       <c r="N33" t="n">
-        <v>144.2363687965303</v>
+        <v>230.9337312320264</v>
       </c>
       <c r="O33" t="n">
         <v>461.221169247742</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>62.40215425643645</v>
+        <v>62.40215425643659</v>
       </c>
       <c r="K34" t="n">
-        <v>166.2290324904</v>
+        <v>166.2290324904002</v>
       </c>
       <c r="L34" t="n">
-        <v>241.357177095575</v>
+        <v>241.3571770955751</v>
       </c>
       <c r="M34" t="n">
-        <v>260.7719600086845</v>
+        <v>260.7719600086847</v>
       </c>
       <c r="N34" t="n">
-        <v>260.3506597640969</v>
+        <v>260.350659764097</v>
       </c>
       <c r="O34" t="n">
-        <v>174.5181332136657</v>
+        <v>174.5181332136622</v>
       </c>
       <c r="P34" t="n">
-        <v>196.9819887211029</v>
+        <v>196.981988721103</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.69540484476327</v>
+        <v>86.69540484476342</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.1020368770041</v>
+        <v>116.1020368770036</v>
       </c>
       <c r="K35" t="n">
         <v>307.5757638768955</v>
@@ -37324,7 +37324,7 @@
         <v>303.9536896960506</v>
       </c>
       <c r="Q35" t="n">
-        <v>150.5756799493637</v>
+        <v>150.5756799493647</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>86.69736243549602</v>
       </c>
       <c r="K36" t="n">
-        <v>26.92225289809514</v>
+        <v>275.9640649871556</v>
       </c>
       <c r="L36" t="n">
         <v>428.8894347487492</v>
@@ -37400,7 +37400,7 @@
         <v>461.221169247742</v>
       </c>
       <c r="P36" t="n">
-        <v>357.363460209958</v>
+        <v>108.3216481208977</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37561,7 +37561,7 @@
         <v>303.9536896960506</v>
       </c>
       <c r="Q38" t="n">
-        <v>150.5756799493643</v>
+        <v>150.5756799493637</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>86.69736243549602</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>275.9640649871556</v>
       </c>
       <c r="L39" t="n">
         <v>428.8894347487492</v>
@@ -37634,13 +37634,13 @@
         <v>587.5485214703726</v>
       </c>
       <c r="O39" t="n">
-        <v>461.221169247742</v>
+        <v>17.90901657389996</v>
       </c>
       <c r="P39" t="n">
         <v>357.363460209958</v>
       </c>
       <c r="Q39" t="n">
-        <v>113.6196153335915</v>
+        <v>194.2703405847816</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37798,7 +37798,7 @@
         <v>303.9536896960506</v>
       </c>
       <c r="Q41" t="n">
-        <v>150.5756799493637</v>
+        <v>150.5756799493634</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>86.69736243549602</v>
       </c>
       <c r="K42" t="n">
         <v>275.9640649871556</v>
@@ -37871,13 +37871,13 @@
         <v>587.5485214703726</v>
       </c>
       <c r="O42" t="n">
-        <v>461.221169247742</v>
+        <v>17.90901657389996</v>
       </c>
       <c r="P42" t="n">
-        <v>195.0190105563936</v>
+        <v>357.363460209958</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>194.2703405847816</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>79.96168636551349</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>60.57800241196987</v>
       </c>
       <c r="L43" t="n">
-        <v>258.916709204652</v>
+        <v>135.7061470171448</v>
       </c>
       <c r="M43" t="n">
-        <v>155.1209299302544</v>
+        <v>278.3314921177614</v>
       </c>
       <c r="N43" t="n">
-        <v>154.6996296856667</v>
+        <v>237.3761181248706</v>
       </c>
       <c r="O43" t="n">
-        <v>255.0718673239651</v>
+        <v>131.8613051364579</v>
       </c>
       <c r="P43" t="n">
-        <v>94.04576071636009</v>
+        <v>214.5415208301798</v>
       </c>
       <c r="Q43" t="n">
-        <v>104.2549369538403</v>
+        <v>104.2549369538402</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38035,7 +38035,7 @@
         <v>303.9536896960506</v>
       </c>
       <c r="Q44" t="n">
-        <v>150.5756799493643</v>
+        <v>150.5756799493637</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>72.27464451040319</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>275.9640649871556</v>
       </c>
       <c r="L45" t="n">
-        <v>348.2387094975588</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>559.2174933666953</v>
@@ -38175,25 +38175,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>60.57800241196987</v>
+        <v>183.7885645994769</v>
       </c>
       <c r="L46" t="n">
-        <v>199.4270102226788</v>
+        <v>218.3826354563487</v>
       </c>
       <c r="M46" t="n">
-        <v>278.3314921177616</v>
+        <v>278.3314921177614</v>
       </c>
       <c r="N46" t="n">
-        <v>277.9101918731739</v>
+        <v>154.6996296856667</v>
       </c>
       <c r="O46" t="n">
-        <v>255.0718673239651</v>
+        <v>131.8613051364579</v>
       </c>
       <c r="P46" t="n">
         <v>91.3309586426727</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>104.2549369538402</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
